--- a/Docs/2016 Personal Finance.xlsx
+++ b/Docs/2016 Personal Finance.xlsx
@@ -9212,7 +9212,7 @@
   <dimension ref="B1:AH36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="Q19" sqref="Q19"/>
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/Docs/2016 Personal Finance.xlsx
+++ b/Docs/2016 Personal Finance.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17440" firstSheet="1" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17440" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Financial Breakdown" sheetId="2" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1823" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1837" uniqueCount="497">
   <si>
     <t>Gross Pay</t>
   </si>
@@ -1511,6 +1511,30 @@
   </si>
   <si>
     <t>Corner Stop - Snacks</t>
+  </si>
+  <si>
+    <t>Kaminari Sushi</t>
+  </si>
+  <si>
+    <t>Auto Air Tires</t>
+  </si>
+  <si>
+    <t>Bucees</t>
+  </si>
+  <si>
+    <t>Golf Now</t>
+  </si>
+  <si>
+    <t>Jimmy Clay Golf</t>
+  </si>
+  <si>
+    <t>Taco Joint</t>
+  </si>
+  <si>
+    <t>Voodoo Room</t>
+  </si>
+  <si>
+    <t>Ride Austin</t>
   </si>
 </sst>
 </file>
@@ -2012,7 +2036,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="44" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2155,8 +2179,14 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="44" fontId="7" fillId="3" borderId="0" xfId="3" applyNumberFormat="1"/>
-    <xf numFmtId="44" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2164,13 +2194,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2783,50 +2806,50 @@
         <f>SUM(N4,R4,V4,Z4,AD4,AH4)</f>
         <v>-244.14999999999995</v>
       </c>
-      <c r="L4" s="134" t="s">
+      <c r="L4" s="129" t="s">
         <v>105</v>
       </c>
-      <c r="M4" s="134"/>
+      <c r="M4" s="129"/>
       <c r="N4" s="20">
         <f>150-N8</f>
         <v>19.590000000000003</v>
       </c>
-      <c r="P4" s="134" t="s">
+      <c r="P4" s="129" t="s">
         <v>106</v>
       </c>
-      <c r="Q4" s="134"/>
+      <c r="Q4" s="129"/>
       <c r="R4" s="20">
         <f>100-R8</f>
         <v>-45.300000000000011</v>
       </c>
-      <c r="T4" s="134" t="s">
+      <c r="T4" s="129" t="s">
         <v>107</v>
       </c>
-      <c r="U4" s="134"/>
+      <c r="U4" s="129"/>
       <c r="V4" s="20">
         <f>200-V8</f>
         <v>-52.449999999999989</v>
       </c>
-      <c r="X4" s="134" t="s">
+      <c r="X4" s="129" t="s">
         <v>108</v>
       </c>
-      <c r="Y4" s="134"/>
+      <c r="Y4" s="129"/>
       <c r="Z4" s="20">
         <f>150-Z8</f>
         <v>-76.680000000000007</v>
       </c>
-      <c r="AB4" s="134" t="s">
+      <c r="AB4" s="129" t="s">
         <v>109</v>
       </c>
-      <c r="AC4" s="134"/>
+      <c r="AC4" s="129"/>
       <c r="AD4" s="20">
         <f>100-AD8</f>
         <v>20.120000000000005</v>
       </c>
-      <c r="AF4" s="134" t="s">
+      <c r="AF4" s="129" t="s">
         <v>110</v>
       </c>
-      <c r="AG4" s="134"/>
+      <c r="AG4" s="129"/>
       <c r="AH4" s="20">
         <f>300-AH8</f>
         <v>-109.42999999999995</v>
@@ -2860,10 +2883,10 @@
       <c r="D6" s="125">
         <v>2589.6799999999998</v>
       </c>
-      <c r="L6" s="130" t="s">
+      <c r="L6" s="132" t="s">
         <v>77</v>
       </c>
-      <c r="M6" s="130"/>
+      <c r="M6" s="132"/>
       <c r="N6" s="72"/>
       <c r="O6" s="17"/>
       <c r="P6" s="73"/>
@@ -2903,30 +2926,30 @@
       <c r="H7" s="38"/>
       <c r="I7" s="38"/>
       <c r="J7" s="39"/>
-      <c r="L7" s="131" t="s">
+      <c r="L7" s="133" t="s">
         <v>62</v>
       </c>
-      <c r="M7" s="131"/>
-      <c r="P7" s="132" t="s">
+      <c r="M7" s="133"/>
+      <c r="P7" s="130" t="s">
         <v>61</v>
       </c>
-      <c r="Q7" s="132"/>
-      <c r="T7" s="132" t="s">
+      <c r="Q7" s="130"/>
+      <c r="T7" s="130" t="s">
         <v>68</v>
       </c>
-      <c r="U7" s="132"/>
-      <c r="X7" s="132" t="s">
+      <c r="U7" s="130"/>
+      <c r="X7" s="130" t="s">
         <v>69</v>
       </c>
-      <c r="Y7" s="132"/>
-      <c r="AB7" s="132" t="s">
+      <c r="Y7" s="130"/>
+      <c r="AB7" s="130" t="s">
         <v>81</v>
       </c>
-      <c r="AC7" s="132"/>
-      <c r="AF7" s="132" t="s">
+      <c r="AC7" s="130"/>
+      <c r="AF7" s="130" t="s">
         <v>111</v>
       </c>
-      <c r="AG7" s="132"/>
+      <c r="AG7" s="130"/>
     </row>
     <row r="8" spans="2:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="34" t="s">
@@ -2949,50 +2972,50 @@
       <c r="H8" s="21"/>
       <c r="I8" s="21"/>
       <c r="J8" s="60"/>
-      <c r="L8" s="133" t="s">
+      <c r="L8" s="131" t="s">
         <v>82</v>
       </c>
-      <c r="M8" s="133"/>
+      <c r="M8" s="131"/>
       <c r="N8" s="71">
         <f>SUM(N10:N50)</f>
         <v>130.41</v>
       </c>
-      <c r="P8" s="133" t="s">
+      <c r="P8" s="131" t="s">
         <v>82</v>
       </c>
-      <c r="Q8" s="133"/>
+      <c r="Q8" s="131"/>
       <c r="R8" s="71">
         <f>SUM(R10:R50)</f>
         <v>145.30000000000001</v>
       </c>
-      <c r="T8" s="133" t="s">
+      <c r="T8" s="131" t="s">
         <v>82</v>
       </c>
-      <c r="U8" s="133"/>
+      <c r="U8" s="131"/>
       <c r="V8" s="71">
         <f>SUM(V10:V50)</f>
         <v>252.45</v>
       </c>
-      <c r="X8" s="133" t="s">
+      <c r="X8" s="131" t="s">
         <v>82</v>
       </c>
-      <c r="Y8" s="133"/>
+      <c r="Y8" s="131"/>
       <c r="Z8" s="71">
         <f>SUM(Z10:Z50)</f>
         <v>226.68</v>
       </c>
-      <c r="AB8" s="133" t="s">
+      <c r="AB8" s="131" t="s">
         <v>82</v>
       </c>
-      <c r="AC8" s="133"/>
+      <c r="AC8" s="131"/>
       <c r="AD8" s="71">
         <f>SUM(AD10:AD50)</f>
         <v>79.88</v>
       </c>
-      <c r="AF8" s="133" t="s">
+      <c r="AF8" s="131" t="s">
         <v>82</v>
       </c>
-      <c r="AG8" s="133"/>
+      <c r="AG8" s="131"/>
       <c r="AH8" s="71">
         <f>SUM(AH10:AH50)</f>
         <v>409.42999999999995</v>
@@ -4046,12 +4069,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="AF4:AG4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="X4:Y4"/>
-    <mergeCell ref="AB4:AC4"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="X7:Y7"/>
     <mergeCell ref="AF7:AG7"/>
     <mergeCell ref="L8:M8"/>
     <mergeCell ref="P8:Q8"/>
@@ -4060,11 +4082,12 @@
     <mergeCell ref="AB8:AC8"/>
     <mergeCell ref="AF8:AG8"/>
     <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="AF4:AG4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="X4:Y4"/>
+    <mergeCell ref="AB4:AC4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4160,50 +4183,50 @@
         <f>SUM(N4,R4,V4,Z4,AD4,AH4)</f>
         <v>-634.38</v>
       </c>
-      <c r="L4" s="134" t="s">
+      <c r="L4" s="129" t="s">
         <v>105</v>
       </c>
-      <c r="M4" s="134"/>
+      <c r="M4" s="129"/>
       <c r="N4" s="20">
         <f>150-N8</f>
         <v>-69.289999999999964</v>
       </c>
-      <c r="P4" s="134" t="s">
+      <c r="P4" s="129" t="s">
         <v>106</v>
       </c>
-      <c r="Q4" s="134"/>
+      <c r="Q4" s="129"/>
       <c r="R4" s="20">
         <f>100-R8</f>
         <v>62.89</v>
       </c>
-      <c r="T4" s="134" t="s">
+      <c r="T4" s="129" t="s">
         <v>107</v>
       </c>
-      <c r="U4" s="134"/>
+      <c r="U4" s="129"/>
       <c r="V4" s="20">
         <f>200-V8</f>
         <v>-119.64999999999998</v>
       </c>
-      <c r="X4" s="134" t="s">
+      <c r="X4" s="129" t="s">
         <v>108</v>
       </c>
-      <c r="Y4" s="134"/>
+      <c r="Y4" s="129"/>
       <c r="Z4" s="20">
         <f>150-Z8</f>
         <v>-144.33000000000004</v>
       </c>
-      <c r="AB4" s="134" t="s">
+      <c r="AB4" s="129" t="s">
         <v>109</v>
       </c>
-      <c r="AC4" s="134"/>
+      <c r="AC4" s="129"/>
       <c r="AD4" s="20">
         <f>100-AD8</f>
         <v>-10.129999999999995</v>
       </c>
-      <c r="AF4" s="134" t="s">
+      <c r="AF4" s="129" t="s">
         <v>110</v>
       </c>
-      <c r="AG4" s="134"/>
+      <c r="AG4" s="129"/>
       <c r="AH4" s="20">
         <f>300-AH8</f>
         <v>-353.87</v>
@@ -4237,10 +4260,10 @@
       <c r="D6" s="33">
         <v>2589.6799999999998</v>
       </c>
-      <c r="L6" s="130" t="s">
+      <c r="L6" s="132" t="s">
         <v>77</v>
       </c>
-      <c r="M6" s="130"/>
+      <c r="M6" s="132"/>
       <c r="N6" s="72"/>
       <c r="O6" s="17"/>
       <c r="P6" s="73"/>
@@ -4280,30 +4303,30 @@
       <c r="H7" s="38"/>
       <c r="I7" s="38"/>
       <c r="J7" s="39"/>
-      <c r="L7" s="131" t="s">
+      <c r="L7" s="133" t="s">
         <v>62</v>
       </c>
-      <c r="M7" s="131"/>
-      <c r="P7" s="132" t="s">
+      <c r="M7" s="133"/>
+      <c r="P7" s="130" t="s">
         <v>61</v>
       </c>
-      <c r="Q7" s="132"/>
-      <c r="T7" s="132" t="s">
+      <c r="Q7" s="130"/>
+      <c r="T7" s="130" t="s">
         <v>68</v>
       </c>
-      <c r="U7" s="132"/>
-      <c r="X7" s="132" t="s">
+      <c r="U7" s="130"/>
+      <c r="X7" s="130" t="s">
         <v>69</v>
       </c>
-      <c r="Y7" s="132"/>
-      <c r="AB7" s="132" t="s">
+      <c r="Y7" s="130"/>
+      <c r="AB7" s="130" t="s">
         <v>81</v>
       </c>
-      <c r="AC7" s="132"/>
-      <c r="AF7" s="132" t="s">
+      <c r="AC7" s="130"/>
+      <c r="AF7" s="130" t="s">
         <v>111</v>
       </c>
-      <c r="AG7" s="132"/>
+      <c r="AG7" s="130"/>
     </row>
     <row r="8" spans="2:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="34" t="s">
@@ -4326,50 +4349,50 @@
       <c r="H8" s="21"/>
       <c r="I8" s="21"/>
       <c r="J8" s="60"/>
-      <c r="L8" s="133" t="s">
+      <c r="L8" s="131" t="s">
         <v>82</v>
       </c>
-      <c r="M8" s="133"/>
+      <c r="M8" s="131"/>
       <c r="N8" s="71">
         <f>SUM(N10:N50)</f>
         <v>219.28999999999996</v>
       </c>
-      <c r="P8" s="133" t="s">
+      <c r="P8" s="131" t="s">
         <v>82</v>
       </c>
-      <c r="Q8" s="133"/>
+      <c r="Q8" s="131"/>
       <c r="R8" s="71">
         <f>SUM(R10:R50)</f>
         <v>37.11</v>
       </c>
-      <c r="T8" s="133" t="s">
+      <c r="T8" s="131" t="s">
         <v>82</v>
       </c>
-      <c r="U8" s="133"/>
+      <c r="U8" s="131"/>
       <c r="V8" s="71">
         <f>SUM(V10:V50)</f>
         <v>319.64999999999998</v>
       </c>
-      <c r="X8" s="133" t="s">
+      <c r="X8" s="131" t="s">
         <v>82</v>
       </c>
-      <c r="Y8" s="133"/>
+      <c r="Y8" s="131"/>
       <c r="Z8" s="71">
         <f>SUM(Z10:Z50)</f>
         <v>294.33000000000004</v>
       </c>
-      <c r="AB8" s="133" t="s">
+      <c r="AB8" s="131" t="s">
         <v>82</v>
       </c>
-      <c r="AC8" s="133"/>
+      <c r="AC8" s="131"/>
       <c r="AD8" s="71">
         <f>SUM(AD10:AD50)</f>
         <v>110.13</v>
       </c>
-      <c r="AF8" s="133" t="s">
+      <c r="AF8" s="131" t="s">
         <v>82</v>
       </c>
-      <c r="AG8" s="133"/>
+      <c r="AG8" s="131"/>
       <c r="AH8" s="71">
         <f>SUM(AH10:AH50)</f>
         <v>653.87</v>
@@ -5473,12 +5496,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="AF4:AG4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="X4:Y4"/>
-    <mergeCell ref="AB4:AC4"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="X7:Y7"/>
     <mergeCell ref="AF7:AG7"/>
     <mergeCell ref="L8:M8"/>
     <mergeCell ref="P8:Q8"/>
@@ -5487,11 +5509,12 @@
     <mergeCell ref="AB8:AC8"/>
     <mergeCell ref="AF8:AG8"/>
     <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="AF4:AG4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="X4:Y4"/>
+    <mergeCell ref="AB4:AC4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5586,50 +5609,50 @@
         <f>SUM(N4,R4,V4,Z4,AD4,AH4)</f>
         <v>-197.77999999999997</v>
       </c>
-      <c r="L4" s="134" t="s">
+      <c r="L4" s="129" t="s">
         <v>105</v>
       </c>
-      <c r="M4" s="134"/>
+      <c r="M4" s="129"/>
       <c r="N4" s="20">
         <f>60-N8</f>
         <v>19.560000000000002</v>
       </c>
-      <c r="P4" s="134" t="s">
+      <c r="P4" s="129" t="s">
         <v>106</v>
       </c>
-      <c r="Q4" s="134"/>
+      <c r="Q4" s="129"/>
       <c r="R4" s="20">
         <f>50-R8</f>
         <v>-95.230000000000018</v>
       </c>
-      <c r="T4" s="134" t="s">
+      <c r="T4" s="129" t="s">
         <v>107</v>
       </c>
-      <c r="U4" s="134"/>
+      <c r="U4" s="129"/>
       <c r="V4" s="20">
         <f>120-V8</f>
         <v>-71.94</v>
       </c>
-      <c r="X4" s="134" t="s">
+      <c r="X4" s="129" t="s">
         <v>108</v>
       </c>
-      <c r="Y4" s="134"/>
+      <c r="Y4" s="129"/>
       <c r="Z4" s="20">
         <f>100-Z8</f>
         <v>13.549999999999997</v>
       </c>
-      <c r="AB4" s="134" t="s">
+      <c r="AB4" s="129" t="s">
         <v>109</v>
       </c>
-      <c r="AC4" s="134"/>
+      <c r="AC4" s="129"/>
       <c r="AD4" s="20">
         <f>50-AD8</f>
         <v>-235.89999999999998</v>
       </c>
-      <c r="AF4" s="134" t="s">
+      <c r="AF4" s="129" t="s">
         <v>110</v>
       </c>
-      <c r="AG4" s="134"/>
+      <c r="AG4" s="129"/>
       <c r="AH4" s="20">
         <f>300-AH8</f>
         <v>172.18</v>
@@ -5663,10 +5686,10 @@
       <c r="D6" s="116">
         <v>2589.6799999999998</v>
       </c>
-      <c r="L6" s="130" t="s">
+      <c r="L6" s="132" t="s">
         <v>77</v>
       </c>
-      <c r="M6" s="130"/>
+      <c r="M6" s="132"/>
       <c r="N6" s="72"/>
       <c r="O6" s="17"/>
       <c r="P6" s="73"/>
@@ -5706,30 +5729,30 @@
       <c r="H7" s="38"/>
       <c r="I7" s="38"/>
       <c r="J7" s="39"/>
-      <c r="L7" s="131" t="s">
+      <c r="L7" s="133" t="s">
         <v>62</v>
       </c>
-      <c r="M7" s="131"/>
-      <c r="P7" s="132" t="s">
+      <c r="M7" s="133"/>
+      <c r="P7" s="130" t="s">
         <v>61</v>
       </c>
-      <c r="Q7" s="132"/>
-      <c r="T7" s="132" t="s">
+      <c r="Q7" s="130"/>
+      <c r="T7" s="130" t="s">
         <v>68</v>
       </c>
-      <c r="U7" s="132"/>
-      <c r="X7" s="132" t="s">
+      <c r="U7" s="130"/>
+      <c r="X7" s="130" t="s">
         <v>69</v>
       </c>
-      <c r="Y7" s="132"/>
-      <c r="AB7" s="132" t="s">
+      <c r="Y7" s="130"/>
+      <c r="AB7" s="130" t="s">
         <v>81</v>
       </c>
-      <c r="AC7" s="132"/>
-      <c r="AF7" s="132" t="s">
+      <c r="AC7" s="130"/>
+      <c r="AF7" s="130" t="s">
         <v>111</v>
       </c>
-      <c r="AG7" s="132"/>
+      <c r="AG7" s="130"/>
     </row>
     <row r="8" spans="2:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="34" t="s">
@@ -5752,50 +5775,50 @@
       <c r="H8" s="21"/>
       <c r="I8" s="21"/>
       <c r="J8" s="60"/>
-      <c r="L8" s="133" t="s">
+      <c r="L8" s="131" t="s">
         <v>82</v>
       </c>
-      <c r="M8" s="133"/>
+      <c r="M8" s="131"/>
       <c r="N8" s="71">
         <f>SUM(N10:N50)</f>
         <v>40.44</v>
       </c>
-      <c r="P8" s="133" t="s">
+      <c r="P8" s="131" t="s">
         <v>82</v>
       </c>
-      <c r="Q8" s="133"/>
+      <c r="Q8" s="131"/>
       <c r="R8" s="71">
         <f>SUM(R10:R50)</f>
         <v>145.23000000000002</v>
       </c>
-      <c r="T8" s="133" t="s">
+      <c r="T8" s="131" t="s">
         <v>82</v>
       </c>
-      <c r="U8" s="133"/>
+      <c r="U8" s="131"/>
       <c r="V8" s="71">
         <f>SUM(V10:V50)</f>
         <v>191.94</v>
       </c>
-      <c r="X8" s="133" t="s">
+      <c r="X8" s="131" t="s">
         <v>82</v>
       </c>
-      <c r="Y8" s="133"/>
+      <c r="Y8" s="131"/>
       <c r="Z8" s="71">
         <f>SUM(Z10:Z50)</f>
         <v>86.45</v>
       </c>
-      <c r="AB8" s="133" t="s">
+      <c r="AB8" s="131" t="s">
         <v>82</v>
       </c>
-      <c r="AC8" s="133"/>
+      <c r="AC8" s="131"/>
       <c r="AD8" s="71">
         <f>SUM(AD10:AD50)</f>
         <v>285.89999999999998</v>
       </c>
-      <c r="AF8" s="133" t="s">
+      <c r="AF8" s="131" t="s">
         <v>82</v>
       </c>
-      <c r="AG8" s="133"/>
+      <c r="AG8" s="131"/>
       <c r="AH8" s="71">
         <f>SUM(AH10:AH50)</f>
         <v>127.82</v>
@@ -6659,12 +6682,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="AF4:AG4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="X4:Y4"/>
-    <mergeCell ref="AB4:AC4"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="X7:Y7"/>
     <mergeCell ref="AF7:AG7"/>
     <mergeCell ref="L8:M8"/>
     <mergeCell ref="P8:Q8"/>
@@ -6673,11 +6695,12 @@
     <mergeCell ref="AB8:AC8"/>
     <mergeCell ref="AF8:AG8"/>
     <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="AF4:AG4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="X4:Y4"/>
+    <mergeCell ref="AB4:AC4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6773,50 +6796,50 @@
         <f>SUM(N4,R4,V4,Z4,AD4,AH4)</f>
         <v>-2035.6000000000004</v>
       </c>
-      <c r="L4" s="134" t="s">
+      <c r="L4" s="129" t="s">
         <v>105</v>
       </c>
-      <c r="M4" s="134"/>
+      <c r="M4" s="129"/>
       <c r="N4" s="20">
         <f>150-N8</f>
         <v>10.389999999999986</v>
       </c>
-      <c r="P4" s="134" t="s">
+      <c r="P4" s="129" t="s">
         <v>106</v>
       </c>
-      <c r="Q4" s="134"/>
+      <c r="Q4" s="129"/>
       <c r="R4" s="20">
         <f>100-R8</f>
         <v>9.8799999999999955</v>
       </c>
-      <c r="T4" s="134" t="s">
+      <c r="T4" s="129" t="s">
         <v>107</v>
       </c>
-      <c r="U4" s="134"/>
+      <c r="U4" s="129"/>
       <c r="V4" s="20">
         <f>200-V8</f>
         <v>-45.319999999999993</v>
       </c>
-      <c r="X4" s="134" t="s">
+      <c r="X4" s="129" t="s">
         <v>108</v>
       </c>
-      <c r="Y4" s="134"/>
+      <c r="Y4" s="129"/>
       <c r="Z4" s="20">
         <f>100-Z8</f>
         <v>-66.089999999999975</v>
       </c>
-      <c r="AB4" s="134" t="s">
+      <c r="AB4" s="129" t="s">
         <v>109</v>
       </c>
-      <c r="AC4" s="134"/>
+      <c r="AC4" s="129"/>
       <c r="AD4" s="20">
         <f>100-AD8</f>
         <v>-58.779999999999973</v>
       </c>
-      <c r="AF4" s="134" t="s">
+      <c r="AF4" s="129" t="s">
         <v>110</v>
       </c>
-      <c r="AG4" s="134"/>
+      <c r="AG4" s="129"/>
       <c r="AH4" s="20">
         <f>500-AH8</f>
         <v>-1885.6800000000003</v>
@@ -6850,10 +6873,10 @@
       <c r="D6" s="33">
         <v>2589.6799999999998</v>
       </c>
-      <c r="L6" s="130" t="s">
+      <c r="L6" s="132" t="s">
         <v>77</v>
       </c>
-      <c r="M6" s="130"/>
+      <c r="M6" s="132"/>
       <c r="N6" s="72"/>
       <c r="O6" s="17"/>
       <c r="P6" s="73"/>
@@ -6893,30 +6916,30 @@
       <c r="H7" s="38"/>
       <c r="I7" s="38"/>
       <c r="J7" s="39"/>
-      <c r="L7" s="131" t="s">
+      <c r="L7" s="133" t="s">
         <v>62</v>
       </c>
-      <c r="M7" s="131"/>
-      <c r="P7" s="132" t="s">
+      <c r="M7" s="133"/>
+      <c r="P7" s="130" t="s">
         <v>61</v>
       </c>
-      <c r="Q7" s="132"/>
-      <c r="T7" s="132" t="s">
+      <c r="Q7" s="130"/>
+      <c r="T7" s="130" t="s">
         <v>68</v>
       </c>
-      <c r="U7" s="132"/>
-      <c r="X7" s="132" t="s">
+      <c r="U7" s="130"/>
+      <c r="X7" s="130" t="s">
         <v>69</v>
       </c>
-      <c r="Y7" s="132"/>
-      <c r="AB7" s="132" t="s">
+      <c r="Y7" s="130"/>
+      <c r="AB7" s="130" t="s">
         <v>81</v>
       </c>
-      <c r="AC7" s="132"/>
-      <c r="AF7" s="132" t="s">
+      <c r="AC7" s="130"/>
+      <c r="AF7" s="130" t="s">
         <v>111</v>
       </c>
-      <c r="AG7" s="132"/>
+      <c r="AG7" s="130"/>
     </row>
     <row r="8" spans="2:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="34" t="s">
@@ -6940,50 +6963,50 @@
       <c r="H8" s="21"/>
       <c r="I8" s="21"/>
       <c r="J8" s="60"/>
-      <c r="L8" s="133" t="s">
+      <c r="L8" s="131" t="s">
         <v>82</v>
       </c>
-      <c r="M8" s="133"/>
+      <c r="M8" s="131"/>
       <c r="N8" s="71">
         <f>SUM(N10:N50)</f>
         <v>139.61000000000001</v>
       </c>
-      <c r="P8" s="133" t="s">
+      <c r="P8" s="131" t="s">
         <v>82</v>
       </c>
-      <c r="Q8" s="133"/>
+      <c r="Q8" s="131"/>
       <c r="R8" s="71">
         <f>SUM(R10:R50)</f>
         <v>90.12</v>
       </c>
-      <c r="T8" s="133" t="s">
+      <c r="T8" s="131" t="s">
         <v>82</v>
       </c>
-      <c r="U8" s="133"/>
+      <c r="U8" s="131"/>
       <c r="V8" s="71">
         <f>SUM(V10:V50)</f>
         <v>245.32</v>
       </c>
-      <c r="X8" s="133" t="s">
+      <c r="X8" s="131" t="s">
         <v>82</v>
       </c>
-      <c r="Y8" s="133"/>
+      <c r="Y8" s="131"/>
       <c r="Z8" s="71">
         <f>SUM(Z10:Z50)</f>
         <v>166.08999999999997</v>
       </c>
-      <c r="AB8" s="133" t="s">
+      <c r="AB8" s="131" t="s">
         <v>82</v>
       </c>
-      <c r="AC8" s="133"/>
+      <c r="AC8" s="131"/>
       <c r="AD8" s="71">
         <f>SUM(AD10:AD50)</f>
         <v>158.77999999999997</v>
       </c>
-      <c r="AF8" s="133" t="s">
+      <c r="AF8" s="131" t="s">
         <v>82</v>
       </c>
-      <c r="AG8" s="133"/>
+      <c r="AG8" s="131"/>
       <c r="AH8" s="71">
         <f>SUM(AH10:AH50)</f>
         <v>2385.6800000000003</v>
@@ -7917,12 +7940,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="AF4:AG4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="X4:Y4"/>
-    <mergeCell ref="AB4:AC4"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="X7:Y7"/>
     <mergeCell ref="AF7:AG7"/>
     <mergeCell ref="L8:M8"/>
     <mergeCell ref="P8:Q8"/>
@@ -7931,11 +7953,12 @@
     <mergeCell ref="AB8:AC8"/>
     <mergeCell ref="AF8:AG8"/>
     <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="AF4:AG4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="X4:Y4"/>
+    <mergeCell ref="AB4:AC4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8030,50 +8053,50 @@
         <f>SUM(N4,R4,V4,Z4,AD4,AH4)</f>
         <v>8.829999999999913</v>
       </c>
-      <c r="L4" s="134" t="s">
+      <c r="L4" s="129" t="s">
         <v>105</v>
       </c>
-      <c r="M4" s="134"/>
+      <c r="M4" s="129"/>
       <c r="N4" s="20">
         <f>150-N8</f>
         <v>45.72</v>
       </c>
-      <c r="P4" s="134" t="s">
+      <c r="P4" s="129" t="s">
         <v>106</v>
       </c>
-      <c r="Q4" s="134"/>
+      <c r="Q4" s="129"/>
       <c r="R4" s="20">
         <f>100-R8</f>
         <v>-106.17000000000002</v>
       </c>
-      <c r="T4" s="134" t="s">
+      <c r="T4" s="129" t="s">
         <v>107</v>
       </c>
-      <c r="U4" s="134"/>
+      <c r="U4" s="129"/>
       <c r="V4" s="20">
         <f>200-V8</f>
         <v>-10.790000000000049</v>
       </c>
-      <c r="X4" s="134" t="s">
+      <c r="X4" s="129" t="s">
         <v>108</v>
       </c>
-      <c r="Y4" s="134"/>
+      <c r="Y4" s="129"/>
       <c r="Z4" s="20">
         <f>100-Z8</f>
         <v>-25.760000000000005</v>
       </c>
-      <c r="AB4" s="134" t="s">
+      <c r="AB4" s="129" t="s">
         <v>109</v>
       </c>
-      <c r="AC4" s="134"/>
+      <c r="AC4" s="129"/>
       <c r="AD4" s="20">
         <f>100-AD8</f>
         <v>80</v>
       </c>
-      <c r="AF4" s="134" t="s">
+      <c r="AF4" s="129" t="s">
         <v>110</v>
       </c>
-      <c r="AG4" s="134"/>
+      <c r="AG4" s="129"/>
       <c r="AH4" s="20">
         <f>300-AH8</f>
         <v>25.829999999999984</v>
@@ -8107,10 +8130,10 @@
       <c r="D6" s="33">
         <v>2589.6799999999998</v>
       </c>
-      <c r="L6" s="130" t="s">
+      <c r="L6" s="132" t="s">
         <v>77</v>
       </c>
-      <c r="M6" s="130"/>
+      <c r="M6" s="132"/>
       <c r="N6" s="72"/>
       <c r="O6" s="17"/>
       <c r="P6" s="73"/>
@@ -8150,30 +8173,30 @@
       <c r="H7" s="38"/>
       <c r="I7" s="38"/>
       <c r="J7" s="39"/>
-      <c r="L7" s="131" t="s">
+      <c r="L7" s="133" t="s">
         <v>62</v>
       </c>
-      <c r="M7" s="131"/>
-      <c r="P7" s="132" t="s">
+      <c r="M7" s="133"/>
+      <c r="P7" s="130" t="s">
         <v>61</v>
       </c>
-      <c r="Q7" s="132"/>
-      <c r="T7" s="132" t="s">
+      <c r="Q7" s="130"/>
+      <c r="T7" s="130" t="s">
         <v>68</v>
       </c>
-      <c r="U7" s="132"/>
-      <c r="X7" s="132" t="s">
+      <c r="U7" s="130"/>
+      <c r="X7" s="130" t="s">
         <v>69</v>
       </c>
-      <c r="Y7" s="132"/>
-      <c r="AB7" s="132" t="s">
+      <c r="Y7" s="130"/>
+      <c r="AB7" s="130" t="s">
         <v>81</v>
       </c>
-      <c r="AC7" s="132"/>
-      <c r="AF7" s="132" t="s">
+      <c r="AC7" s="130"/>
+      <c r="AF7" s="130" t="s">
         <v>111</v>
       </c>
-      <c r="AG7" s="132"/>
+      <c r="AG7" s="130"/>
     </row>
     <row r="8" spans="2:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="34" t="s">
@@ -8196,50 +8219,50 @@
       <c r="H8" s="21"/>
       <c r="I8" s="21"/>
       <c r="J8" s="60"/>
-      <c r="L8" s="133" t="s">
+      <c r="L8" s="131" t="s">
         <v>82</v>
       </c>
-      <c r="M8" s="133"/>
+      <c r="M8" s="131"/>
       <c r="N8" s="71">
         <f>SUM(N10:N50)</f>
         <v>104.28</v>
       </c>
-      <c r="P8" s="133" t="s">
+      <c r="P8" s="131" t="s">
         <v>82</v>
       </c>
-      <c r="Q8" s="133"/>
+      <c r="Q8" s="131"/>
       <c r="R8" s="71">
         <f>SUM(R10:R50)</f>
         <v>206.17000000000002</v>
       </c>
-      <c r="T8" s="133" t="s">
+      <c r="T8" s="131" t="s">
         <v>82</v>
       </c>
-      <c r="U8" s="133"/>
+      <c r="U8" s="131"/>
       <c r="V8" s="71">
         <f>SUM(V10:V50)</f>
         <v>210.79000000000005</v>
       </c>
-      <c r="X8" s="133" t="s">
+      <c r="X8" s="131" t="s">
         <v>82</v>
       </c>
-      <c r="Y8" s="133"/>
+      <c r="Y8" s="131"/>
       <c r="Z8" s="71">
         <f>SUM(Z10:Z50)</f>
         <v>125.76</v>
       </c>
-      <c r="AB8" s="133" t="s">
+      <c r="AB8" s="131" t="s">
         <v>82</v>
       </c>
-      <c r="AC8" s="133"/>
+      <c r="AC8" s="131"/>
       <c r="AD8" s="71">
         <f>SUM(AD10:AD50)</f>
         <v>20</v>
       </c>
-      <c r="AF8" s="133" t="s">
+      <c r="AF8" s="131" t="s">
         <v>82</v>
       </c>
-      <c r="AG8" s="133"/>
+      <c r="AG8" s="131"/>
       <c r="AH8" s="71">
         <f>SUM(AH10:AH50)</f>
         <v>274.17</v>
@@ -9183,12 +9206,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="AF4:AG4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="X4:Y4"/>
-    <mergeCell ref="AB4:AC4"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="X7:Y7"/>
     <mergeCell ref="AF7:AG7"/>
     <mergeCell ref="L8:M8"/>
     <mergeCell ref="P8:Q8"/>
@@ -9197,11 +9219,12 @@
     <mergeCell ref="AB8:AC8"/>
     <mergeCell ref="AF8:AG8"/>
     <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="AF4:AG4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="X4:Y4"/>
+    <mergeCell ref="AB4:AC4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9212,7 +9235,7 @@
   <dimension ref="B1:AH36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9279,7 +9302,7 @@
       </c>
       <c r="G3" s="15">
         <f>D29</f>
-        <v>1700.2883999999997</v>
+        <v>3401.3967999999995</v>
       </c>
     </row>
     <row r="4" spans="2:34" x14ac:dyDescent="0.2">
@@ -9294,55 +9317,55 @@
       </c>
       <c r="J4" s="20">
         <f>SUM(N4,R4,V4,Z4,AD4,AH4)</f>
-        <v>187.27999999999997</v>
-      </c>
-      <c r="L4" s="134" t="s">
+        <v>-57.610000000000014</v>
+      </c>
+      <c r="L4" s="129" t="s">
         <v>105</v>
       </c>
-      <c r="M4" s="134"/>
+      <c r="M4" s="129"/>
       <c r="N4" s="20">
         <f>150-N8</f>
-        <v>72.88</v>
-      </c>
-      <c r="P4" s="134" t="s">
+        <v>43.069999999999993</v>
+      </c>
+      <c r="P4" s="129" t="s">
         <v>106</v>
       </c>
-      <c r="Q4" s="134"/>
+      <c r="Q4" s="129"/>
       <c r="R4" s="20">
         <f>100-R8</f>
         <v>60.63</v>
       </c>
-      <c r="T4" s="134" t="s">
+      <c r="T4" s="129" t="s">
         <v>107</v>
       </c>
-      <c r="U4" s="134"/>
+      <c r="U4" s="129"/>
       <c r="V4" s="20">
         <f>200-V8</f>
-        <v>95.649999999999991</v>
-      </c>
-      <c r="X4" s="134" t="s">
+        <v>43.300000000000011</v>
+      </c>
+      <c r="X4" s="129" t="s">
         <v>108</v>
       </c>
-      <c r="Y4" s="134"/>
+      <c r="Y4" s="129"/>
       <c r="Z4" s="20">
         <f>100-Z8</f>
-        <v>-127.50999999999999</v>
-      </c>
-      <c r="AB4" s="134" t="s">
+        <v>-206.67000000000002</v>
+      </c>
+      <c r="AB4" s="129" t="s">
         <v>109</v>
       </c>
-      <c r="AC4" s="134"/>
+      <c r="AC4" s="129"/>
       <c r="AD4" s="20">
         <f>100-AD8</f>
-        <v>-5</v>
-      </c>
-      <c r="AF4" s="134" t="s">
+        <v>-6.5</v>
+      </c>
+      <c r="AF4" s="129" t="s">
         <v>110</v>
       </c>
-      <c r="AG4" s="134"/>
+      <c r="AG4" s="129"/>
       <c r="AH4" s="20">
         <f>300-AH8</f>
-        <v>90.63</v>
+        <v>8.5600000000000023</v>
       </c>
     </row>
     <row r="5" spans="2:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -9360,7 +9383,7 @@
       </c>
       <c r="G5" s="15">
         <f>SUM(G2:G4)</f>
-        <v>20449.093980000001</v>
+        <v>22150.202379999999</v>
       </c>
     </row>
     <row r="6" spans="2:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -9371,12 +9394,12 @@
         <v>2589.6799999999998</v>
       </c>
       <c r="D6" s="33">
-        <v>0</v>
-      </c>
-      <c r="L6" s="130" t="s">
+        <v>2589.6799999999998</v>
+      </c>
+      <c r="L6" s="132" t="s">
         <v>77</v>
       </c>
-      <c r="M6" s="130"/>
+      <c r="M6" s="132"/>
       <c r="N6" s="72"/>
       <c r="O6" s="17"/>
       <c r="P6" s="73"/>
@@ -9416,30 +9439,30 @@
       <c r="H7" s="38"/>
       <c r="I7" s="38"/>
       <c r="J7" s="39"/>
-      <c r="L7" s="131" t="s">
+      <c r="L7" s="133" t="s">
         <v>62</v>
       </c>
-      <c r="M7" s="131"/>
-      <c r="P7" s="132" t="s">
+      <c r="M7" s="133"/>
+      <c r="P7" s="130" t="s">
         <v>61</v>
       </c>
-      <c r="Q7" s="132"/>
-      <c r="T7" s="132" t="s">
+      <c r="Q7" s="130"/>
+      <c r="T7" s="130" t="s">
         <v>68</v>
       </c>
-      <c r="U7" s="132"/>
-      <c r="X7" s="132" t="s">
+      <c r="U7" s="130"/>
+      <c r="X7" s="130" t="s">
         <v>69</v>
       </c>
-      <c r="Y7" s="132"/>
-      <c r="AB7" s="132" t="s">
+      <c r="Y7" s="130"/>
+      <c r="AB7" s="130" t="s">
         <v>81</v>
       </c>
-      <c r="AC7" s="132"/>
-      <c r="AF7" s="132" t="s">
+      <c r="AC7" s="130"/>
+      <c r="AF7" s="130" t="s">
         <v>111</v>
       </c>
-      <c r="AG7" s="132"/>
+      <c r="AG7" s="130"/>
     </row>
     <row r="8" spans="2:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="34" t="s">
@@ -9451,7 +9474,7 @@
       </c>
       <c r="D8" s="35">
         <f>D6+D7</f>
-        <v>0</v>
+        <v>2589.6799999999998</v>
       </c>
       <c r="F8" s="59" t="s">
         <v>90</v>
@@ -9462,53 +9485,53 @@
       <c r="H8" s="21"/>
       <c r="I8" s="21"/>
       <c r="J8" s="60"/>
-      <c r="L8" s="133" t="s">
+      <c r="L8" s="131" t="s">
         <v>82</v>
       </c>
-      <c r="M8" s="133"/>
+      <c r="M8" s="131"/>
       <c r="N8" s="71">
         <f>SUM(N10:N50)</f>
-        <v>77.12</v>
-      </c>
-      <c r="P8" s="133" t="s">
+        <v>106.93</v>
+      </c>
+      <c r="P8" s="131" t="s">
         <v>82</v>
       </c>
-      <c r="Q8" s="133"/>
+      <c r="Q8" s="131"/>
       <c r="R8" s="71">
         <f>SUM(R10:R50)</f>
         <v>39.369999999999997</v>
       </c>
-      <c r="T8" s="133" t="s">
+      <c r="T8" s="131" t="s">
         <v>82</v>
       </c>
-      <c r="U8" s="133"/>
+      <c r="U8" s="131"/>
       <c r="V8" s="71">
         <f>SUM(V10:V50)</f>
-        <v>104.35000000000001</v>
-      </c>
-      <c r="X8" s="133" t="s">
+        <v>156.69999999999999</v>
+      </c>
+      <c r="X8" s="131" t="s">
         <v>82</v>
       </c>
-      <c r="Y8" s="133"/>
+      <c r="Y8" s="131"/>
       <c r="Z8" s="71">
         <f>SUM(Z10:Z50)</f>
-        <v>227.51</v>
-      </c>
-      <c r="AB8" s="133" t="s">
+        <v>306.67</v>
+      </c>
+      <c r="AB8" s="131" t="s">
         <v>82</v>
       </c>
-      <c r="AC8" s="133"/>
+      <c r="AC8" s="131"/>
       <c r="AD8" s="71">
         <f>SUM(AD10:AD50)</f>
-        <v>105</v>
-      </c>
-      <c r="AF8" s="133" t="s">
+        <v>106.5</v>
+      </c>
+      <c r="AF8" s="131" t="s">
         <v>82</v>
       </c>
-      <c r="AG8" s="133"/>
+      <c r="AG8" s="131"/>
       <c r="AH8" s="71">
         <f>SUM(AH10:AH50)</f>
-        <v>209.37</v>
+        <v>291.44</v>
       </c>
     </row>
     <row r="9" spans="2:34" x14ac:dyDescent="0.2">
@@ -9516,7 +9539,7 @@
       <c r="C9" s="19"/>
       <c r="D9" s="37">
         <f>SUM(C8:D8)</f>
-        <v>2589.6799999999998</v>
+        <v>5179.3599999999997</v>
       </c>
       <c r="F9" s="32"/>
       <c r="G9" s="6"/>
@@ -9664,7 +9687,7 @@
       </c>
       <c r="J11" s="33">
         <f>N8</f>
-        <v>77.12</v>
+        <v>106.93</v>
       </c>
       <c r="L11" s="70">
         <v>42724</v>
@@ -9732,8 +9755,7 @@
         <v>380.32</v>
       </c>
       <c r="D12" s="41">
-        <f>0.146*D8</f>
-        <v>0</v>
+        <v>379.7</v>
       </c>
       <c r="F12" s="62" t="s">
         <v>53</v>
@@ -9750,7 +9772,16 @@
         <f>R8</f>
         <v>39.369999999999997</v>
       </c>
-      <c r="N12" s="100"/>
+      <c r="L12" s="70">
+        <v>42733</v>
+      </c>
+      <c r="M12" t="s">
+        <v>491</v>
+      </c>
+      <c r="N12" s="100">
+        <f>29.81</f>
+        <v>29.81</v>
+      </c>
       <c r="P12" s="70">
         <v>42718</v>
       </c>
@@ -9777,6 +9808,15 @@
       </c>
       <c r="Z12" s="100">
         <v>14.51</v>
+      </c>
+      <c r="AB12" s="70">
+        <v>42733</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>490</v>
+      </c>
+      <c r="AD12" s="20">
+        <v>1.5</v>
       </c>
       <c r="AF12" s="70">
         <v>42716</v>
@@ -9796,8 +9836,7 @@
         <v>160.72</v>
       </c>
       <c r="D13" s="41">
-        <f>0.062*D8</f>
-        <v>0</v>
+        <v>160.56</v>
       </c>
       <c r="F13" s="62" t="s">
         <v>54</v>
@@ -9812,7 +9851,7 @@
       </c>
       <c r="J13" s="33">
         <f>V8</f>
-        <v>104.35000000000001</v>
+        <v>156.69999999999999</v>
       </c>
       <c r="P13" s="70">
         <v>42721</v>
@@ -9861,8 +9900,7 @@
         <v>37.590000000000003</v>
       </c>
       <c r="D14" s="41">
-        <f>0.0145*D8</f>
-        <v>0</v>
+        <v>37.549999999999997</v>
       </c>
       <c r="F14" s="62" t="s">
         <v>55</v>
@@ -9876,7 +9914,7 @@
       </c>
       <c r="J14" s="33">
         <f>Z8</f>
-        <v>227.51</v>
+        <v>306.67</v>
       </c>
       <c r="T14" s="70">
         <v>42712</v>
@@ -9917,7 +9955,7 @@
       </c>
       <c r="D15" s="43">
         <f>SUM(D12:D14)</f>
-        <v>0</v>
+        <v>577.80999999999995</v>
       </c>
       <c r="F15" s="63" t="s">
         <v>56</v>
@@ -9932,7 +9970,7 @@
       </c>
       <c r="J15" s="33">
         <f>AD8</f>
-        <v>105</v>
+        <v>106.5</v>
       </c>
       <c r="T15" s="70">
         <v>42715</v>
@@ -9973,9 +10011,9 @@
         <f>C15/C8</f>
         <v>0.2234368725093448</v>
       </c>
-      <c r="D16" s="44" t="e">
+      <c r="D16" s="44">
         <f>D15/D8</f>
-        <v>#DIV/0!</v>
+        <v>0.22312023107102036</v>
       </c>
       <c r="F16" s="32"/>
       <c r="G16" s="6"/>
@@ -9985,7 +10023,7 @@
       </c>
       <c r="J16" s="33">
         <f>AH8</f>
-        <v>209.37</v>
+        <v>291.44</v>
       </c>
       <c r="T16" s="70">
         <v>42715</v>
@@ -10022,7 +10060,7 @@
       <c r="C17" s="24"/>
       <c r="D17" s="45">
         <f>SUM(C15:D15)</f>
-        <v>578.63</v>
+        <v>1156.44</v>
       </c>
       <c r="F17" s="65" t="s">
         <v>63</v>
@@ -10033,8 +10071,8 @@
         <v>94</v>
       </c>
       <c r="J17" s="33">
-        <f>3.54+2.82+5.2+2.18</f>
-        <v>13.739999999999998</v>
+        <f>3.54+2.82+5.2+2.18+3.43</f>
+        <v>17.169999999999998</v>
       </c>
       <c r="T17" s="70">
         <v>42716</v>
@@ -10072,7 +10110,7 @@
       <c r="C18" s="47"/>
       <c r="D18" s="48">
         <f>D17/D9</f>
-        <v>0.2234368725093448</v>
+        <v>0.22327855179018261</v>
       </c>
       <c r="F18" s="32" t="s">
         <v>101</v>
@@ -10086,7 +10124,7 @@
       </c>
       <c r="J18" s="33">
         <f>SUM(J33:J37)</f>
-        <v>415.54999999999995</v>
+        <v>438.46</v>
       </c>
       <c r="T18" s="70">
         <v>42720</v>
@@ -10131,7 +10169,7 @@
       </c>
       <c r="J19" s="64">
         <f>SUM(J11:J18)</f>
-        <v>1192.01</v>
+        <v>1463.2400000000002</v>
       </c>
       <c r="T19" s="70">
         <v>42721</v>
@@ -10219,13 +10257,13 @@
       </c>
       <c r="D21" s="33">
         <f>0.08*D6</f>
-        <v>0</v>
+        <v>207.17439999999999</v>
       </c>
       <c r="F21" s="32" t="s">
         <v>91</v>
       </c>
       <c r="G21" s="6">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="H21" s="21"/>
       <c r="I21" s="56" t="s">
@@ -10233,9 +10271,18 @@
       </c>
       <c r="J21" s="106">
         <f>SUM(G26,J19)</f>
-        <v>2963.1149999999998</v>
-      </c>
-      <c r="V21" s="100"/>
+        <v>3254.3450000000003</v>
+      </c>
+      <c r="T21" s="70">
+        <v>42731</v>
+      </c>
+      <c r="U21" t="s">
+        <v>489</v>
+      </c>
+      <c r="V21" s="100">
+        <f>13.55</f>
+        <v>13.55</v>
+      </c>
       <c r="X21" s="70">
         <v>42728</v>
       </c>
@@ -10252,9 +10299,9 @@
       <c r="AG21" t="s">
         <v>487</v>
       </c>
-      <c r="AH21" s="128">
-        <f>9.79-9.79</f>
-        <v>0</v>
+      <c r="AH21" s="100">
+        <f>9.79</f>
+        <v>9.7899999999999991</v>
       </c>
     </row>
     <row r="22" spans="2:34" x14ac:dyDescent="0.2">
@@ -10267,7 +10314,7 @@
       </c>
       <c r="D22" s="33">
         <f>0.04*D6</f>
-        <v>0</v>
+        <v>103.5872</v>
       </c>
       <c r="F22" s="32" t="s">
         <v>59</v>
@@ -10278,7 +10325,16 @@
       <c r="H22" s="21"/>
       <c r="I22" s="21"/>
       <c r="J22" s="60"/>
-      <c r="V22" s="100"/>
+      <c r="T22" s="70">
+        <v>42733</v>
+      </c>
+      <c r="U22" t="s">
+        <v>179</v>
+      </c>
+      <c r="V22" s="100">
+        <f>14.61</f>
+        <v>14.61</v>
+      </c>
       <c r="X22" s="70">
         <v>42728</v>
       </c>
@@ -10295,9 +10351,9 @@
       <c r="AG22" t="s">
         <v>488</v>
       </c>
-      <c r="AH22" s="128">
-        <f>4.93-4.93</f>
-        <v>0</v>
+      <c r="AH22" s="100">
+        <f>4.93</f>
+        <v>4.93</v>
       </c>
     </row>
     <row r="23" spans="2:34" x14ac:dyDescent="0.2">
@@ -10310,7 +10366,7 @@
       </c>
       <c r="D23" s="49">
         <f>SUM(D21:D22)</f>
-        <v>0</v>
+        <v>310.76159999999999</v>
       </c>
       <c r="F23" s="32" t="s">
         <v>60</v>
@@ -10321,6 +10377,36 @@
       <c r="H23" s="21"/>
       <c r="I23" s="21"/>
       <c r="J23" s="60"/>
+      <c r="T23" s="70">
+        <v>42734</v>
+      </c>
+      <c r="U23" t="s">
+        <v>120</v>
+      </c>
+      <c r="V23" s="100">
+        <f>9.9</f>
+        <v>9.9</v>
+      </c>
+      <c r="X23" s="70">
+        <v>42733</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>157</v>
+      </c>
+      <c r="Z23" s="100">
+        <f>8.65</f>
+        <v>8.65</v>
+      </c>
+      <c r="AF23" s="70">
+        <v>42734</v>
+      </c>
+      <c r="AG23" t="s">
+        <v>492</v>
+      </c>
+      <c r="AH23" s="100">
+        <f>7.47</f>
+        <v>7.47</v>
+      </c>
     </row>
     <row r="24" spans="2:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="32"/>
@@ -10328,9 +10414,9 @@
         <f>C23/C6</f>
         <v>0.12000000000000001</v>
       </c>
-      <c r="D24" s="51" t="e">
+      <c r="D24" s="51">
         <f>D23/D6</f>
-        <v>#DIV/0!</v>
+        <v>0.12000000000000001</v>
       </c>
       <c r="F24" s="36" t="s">
         <v>95</v>
@@ -10342,24 +10428,74 @@
       <c r="H24" s="21"/>
       <c r="I24" s="21"/>
       <c r="J24" s="60"/>
+      <c r="T24" s="70">
+        <v>42734</v>
+      </c>
+      <c r="U24" t="s">
+        <v>494</v>
+      </c>
+      <c r="V24" s="100">
+        <f>8.12</f>
+        <v>8.1199999999999992</v>
+      </c>
+      <c r="X24" s="70">
+        <v>42734</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z24" s="100">
+        <f>40.52</f>
+        <v>40.520000000000003</v>
+      </c>
+      <c r="AF24" s="70">
+        <v>42734</v>
+      </c>
+      <c r="AG24" t="s">
+        <v>493</v>
+      </c>
+      <c r="AH24" s="100">
+        <f>59.88</f>
+        <v>59.88</v>
+      </c>
     </row>
     <row r="25" spans="2:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B25" s="32"/>
       <c r="C25" s="21"/>
       <c r="D25" s="52">
         <f>SUM(C23:D23)</f>
-        <v>310.76159999999999</v>
+        <v>621.52319999999997</v>
       </c>
       <c r="F25" s="66" t="s">
         <v>65</v>
       </c>
       <c r="G25" s="54">
         <f>SUM(G18:G24)</f>
-        <v>983.50999999999988</v>
+        <v>1003.5099999999999</v>
       </c>
       <c r="H25" s="21"/>
       <c r="I25" s="21"/>
       <c r="J25" s="60"/>
+      <c r="T25" s="70">
+        <v>42735</v>
+      </c>
+      <c r="U25" t="s">
+        <v>406</v>
+      </c>
+      <c r="V25" s="100">
+        <f>6.17</f>
+        <v>6.17</v>
+      </c>
+      <c r="X25" s="70">
+        <v>42735</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>304</v>
+      </c>
+      <c r="Z25" s="100">
+        <f>13.99</f>
+        <v>13.99</v>
+      </c>
     </row>
     <row r="26" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B26" s="36"/>
@@ -10373,11 +10509,21 @@
       </c>
       <c r="G26" s="108">
         <f>SUM(G8,G15,G25)</f>
-        <v>1771.105</v>
+        <v>1791.105</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
       <c r="J26" s="67"/>
+      <c r="X26" s="70">
+        <v>42735</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>495</v>
+      </c>
+      <c r="Z26" s="100">
+        <f>16</f>
+        <v>16</v>
+      </c>
     </row>
     <row r="27" spans="2:34" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="28" spans="2:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -10390,20 +10536,20 @@
       </c>
       <c r="D28" s="27">
         <f>D8-D15-D23</f>
-        <v>0</v>
+        <v>1701.1083999999998</v>
       </c>
       <c r="I28" s="25" t="s">
         <v>74</v>
       </c>
       <c r="J28" s="68">
         <f>G5-J21</f>
-        <v>17485.97898</v>
+        <v>18895.857379999998</v>
       </c>
     </row>
     <row r="29" spans="2:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D29" s="28">
         <f>SUM(C28:D28)</f>
-        <v>1700.2883999999997</v>
+        <v>3401.3967999999995</v>
       </c>
     </row>
     <row r="30" spans="2:34" x14ac:dyDescent="0.2">
@@ -10412,7 +10558,7 @@
       </c>
       <c r="J30" s="20">
         <f>J28-G2</f>
-        <v>-1262.8266000000003</v>
+        <v>147.05179999999746</v>
       </c>
     </row>
     <row r="32" spans="2:34" x14ac:dyDescent="0.2">
@@ -10447,16 +10593,21 @@
       </c>
     </row>
     <row r="36" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="J36" s="20"/>
+      <c r="I36" t="s">
+        <v>496</v>
+      </c>
+      <c r="J36" s="100">
+        <f>8.52+14.39</f>
+        <v>22.91</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="AF4:AG4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="X4:Y4"/>
-    <mergeCell ref="AB4:AC4"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="X7:Y7"/>
     <mergeCell ref="AF7:AG7"/>
     <mergeCell ref="L8:M8"/>
     <mergeCell ref="P8:Q8"/>
@@ -10465,11 +10616,12 @@
     <mergeCell ref="AB8:AC8"/>
     <mergeCell ref="AF8:AG8"/>
     <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="AF4:AG4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="X4:Y4"/>
+    <mergeCell ref="AB4:AC4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10481,7 +10633,7 @@
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O56" sqref="O56"/>
+      <selection pane="bottomLeft" activeCell="N54" sqref="N54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10499,25 +10651,25 @@
       </c>
       <c r="B1" s="113">
         <f>N9</f>
-        <v>66424.77</v>
+        <v>69014.450000000012</v>
       </c>
       <c r="C1" s="113"/>
-      <c r="E1" s="129" t="s">
+      <c r="E1" s="128" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="129"/>
+      <c r="F1" s="128"/>
       <c r="G1" s="113">
         <f>N22</f>
-        <v>44489.70547999999</v>
+        <v>46190.813879999994</v>
       </c>
       <c r="H1" s="113"/>
-      <c r="J1" s="129" t="s">
+      <c r="J1" s="128" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="129"/>
+      <c r="K1" s="128"/>
       <c r="L1" s="126">
         <f>N60-B2</f>
-        <v>6820.188979999999</v>
+        <v>8230.0673800000004</v>
       </c>
       <c r="M1" s="114"/>
     </row>
@@ -10636,15 +10788,15 @@
       </c>
       <c r="M7" s="20">
         <f>SUM(Dec!C6:D6)</f>
-        <v>2589.6799999999998</v>
+        <v>5179.3599999999997</v>
       </c>
       <c r="N7" s="91">
         <f>SUM(B7:M7)</f>
-        <v>58148.420000000006</v>
+        <v>60738.100000000006</v>
       </c>
       <c r="O7" s="91">
         <f>AVERAGE(B7:M7)</f>
-        <v>4845.7016666666668</v>
+        <v>5061.5083333333341</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -10758,15 +10910,15 @@
       </c>
       <c r="M9" s="20">
         <f t="shared" si="2"/>
-        <v>2589.6799999999998</v>
+        <v>5179.3599999999997</v>
       </c>
       <c r="N9" s="91">
         <f t="shared" si="0"/>
-        <v>66424.77</v>
+        <v>69014.450000000012</v>
       </c>
       <c r="O9" s="91">
         <f t="shared" si="1"/>
-        <v>5535.3975</v>
+        <v>5751.2041666666673</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
@@ -10854,15 +11006,15 @@
       </c>
       <c r="M12" s="78">
         <f>SUM(Dec!C12:D12)</f>
-        <v>380.32</v>
+        <v>760.02</v>
       </c>
       <c r="N12" s="91">
         <f t="shared" si="0"/>
-        <v>10498.949999999999</v>
+        <v>10878.65</v>
       </c>
       <c r="O12" s="91">
         <f t="shared" si="1"/>
-        <v>874.91249999999991</v>
+        <v>906.55416666666667</v>
       </c>
     </row>
     <row r="13" spans="1:15" s="79" customFormat="1" x14ac:dyDescent="0.2">
@@ -10915,15 +11067,15 @@
       </c>
       <c r="M13" s="78">
         <f>SUM(Dec!C13:D13)</f>
-        <v>160.72</v>
+        <v>321.27999999999997</v>
       </c>
       <c r="N13" s="91">
         <f t="shared" si="0"/>
-        <v>4127.5701599999993</v>
+        <v>4288.1301599999997</v>
       </c>
       <c r="O13" s="91">
         <f t="shared" si="1"/>
-        <v>343.96417999999994</v>
+        <v>357.34417999999999</v>
       </c>
     </row>
     <row r="14" spans="1:15" s="79" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -10976,15 +11128,15 @@
       </c>
       <c r="M14" s="95">
         <f>SUM(Dec!C14:D14)</f>
-        <v>37.590000000000003</v>
+        <v>75.14</v>
       </c>
       <c r="N14" s="93">
         <f t="shared" si="0"/>
-        <v>965.32036000000005</v>
+        <v>1002.87036</v>
       </c>
       <c r="O14" s="91">
         <f t="shared" si="1"/>
-        <v>80.443363333333338</v>
+        <v>83.57253</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
@@ -11037,15 +11189,15 @@
       </c>
       <c r="M15" s="78">
         <f t="shared" si="3"/>
-        <v>578.63</v>
+        <v>1156.44</v>
       </c>
       <c r="N15" s="91">
         <f t="shared" si="0"/>
-        <v>15591.840519999998</v>
+        <v>16169.650519999999</v>
       </c>
       <c r="O15" s="91">
         <f t="shared" si="1"/>
-        <v>1299.3200433333332</v>
+        <v>1347.4708766666665</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
@@ -11134,15 +11286,15 @@
       </c>
       <c r="M18" s="20">
         <f>SUM(Dec!C21:D21)</f>
-        <v>207.17439999999999</v>
+        <v>414.34879999999998</v>
       </c>
       <c r="N18" s="91">
         <f t="shared" si="0"/>
-        <v>4013.1135999999988</v>
+        <v>4220.2879999999986</v>
       </c>
       <c r="O18" s="91">
         <f t="shared" si="1"/>
-        <v>334.42613333333321</v>
+        <v>351.69066666666657</v>
       </c>
     </row>
     <row r="19" spans="1:15 16384:16384" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -11195,15 +11347,15 @@
       </c>
       <c r="M19" s="72">
         <f>SUM(Dec!C22:D22)</f>
-        <v>103.5872</v>
+        <v>207.17439999999999</v>
       </c>
       <c r="N19" s="93">
         <f t="shared" si="0"/>
-        <v>2330.1183999999994</v>
+        <v>2433.7055999999993</v>
       </c>
       <c r="O19" s="91">
         <f t="shared" si="1"/>
-        <v>194.17653333333328</v>
+        <v>202.80879999999993</v>
       </c>
     </row>
     <row r="20" spans="1:15 16384:16384" x14ac:dyDescent="0.2">
@@ -11256,15 +11408,15 @@
       </c>
       <c r="M20" s="20">
         <f t="shared" si="4"/>
-        <v>310.76159999999999</v>
+        <v>621.52319999999997</v>
       </c>
       <c r="N20" s="91">
         <f t="shared" si="0"/>
-        <v>6343.2319999999991</v>
+        <v>6653.9935999999989</v>
       </c>
       <c r="O20" s="91">
         <f t="shared" si="1"/>
-        <v>528.60266666666655</v>
+        <v>554.49946666666654</v>
       </c>
     </row>
     <row r="21" spans="1:15 16384:16384" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -11333,15 +11485,15 @@
       </c>
       <c r="M22" s="83">
         <f t="shared" si="5"/>
-        <v>1700.2883999999997</v>
+        <v>3401.3967999999995</v>
       </c>
       <c r="N22" s="94">
         <f t="shared" si="0"/>
-        <v>44489.70547999999</v>
+        <v>46190.813879999994</v>
       </c>
       <c r="O22" s="91">
         <f t="shared" si="1"/>
-        <v>3707.4754566666657</v>
+        <v>3849.2344899999994</v>
       </c>
     </row>
     <row r="23" spans="1:15 16384:16384" x14ac:dyDescent="0.2">
@@ -12070,15 +12222,15 @@
       </c>
       <c r="M40" s="20">
         <f>Dec!G21</f>
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N40" s="91">
         <f t="shared" si="0"/>
-        <v>930</v>
+        <v>950</v>
       </c>
       <c r="O40" s="91">
         <f t="shared" si="1"/>
-        <v>77.5</v>
+        <v>79.166666666666671</v>
       </c>
       <c r="Q40">
         <v>80</v>
@@ -12338,15 +12490,15 @@
       </c>
       <c r="M44" s="85">
         <f t="shared" si="7"/>
-        <v>983.50999999999988</v>
+        <v>1003.5099999999999</v>
       </c>
       <c r="N44" s="93">
         <f t="shared" si="0"/>
-        <v>11215.52</v>
+        <v>11235.52</v>
       </c>
       <c r="O44" s="91">
         <f t="shared" si="1"/>
-        <v>934.62666666666667</v>
+        <v>936.29333333333341</v>
       </c>
       <c r="Q44" s="79">
         <f>SUM(Q37:Q43)</f>
@@ -12407,15 +12559,15 @@
       </c>
       <c r="M45" s="78">
         <f t="shared" si="8"/>
-        <v>1771.105</v>
+        <v>1791.105</v>
       </c>
       <c r="N45" s="91">
         <f t="shared" si="0"/>
-        <v>20890.916499999999</v>
+        <v>20910.916499999999</v>
       </c>
       <c r="O45" s="91">
         <f t="shared" si="1"/>
-        <v>1740.9097083333334</v>
+        <v>1742.5763749999999</v>
       </c>
       <c r="Q45" s="79">
         <f>Q44+800</f>
@@ -12487,15 +12639,15 @@
       </c>
       <c r="M48" s="20">
         <f>Dec!J11</f>
-        <v>77.12</v>
+        <v>106.93</v>
       </c>
       <c r="N48" s="91">
         <f t="shared" si="0"/>
-        <v>1417.79</v>
+        <v>1447.6</v>
       </c>
       <c r="O48" s="91">
         <f t="shared" si="1"/>
-        <v>118.14916666666666</v>
+        <v>120.63333333333333</v>
       </c>
       <c r="P48" s="20">
         <v>121.86444444444444</v>
@@ -12627,15 +12779,15 @@
       </c>
       <c r="M50" s="20">
         <f>Dec!J13</f>
-        <v>104.35000000000001</v>
+        <v>156.69999999999999</v>
       </c>
       <c r="N50" s="91">
         <f t="shared" si="0"/>
-        <v>2726.21</v>
+        <v>2778.56</v>
       </c>
       <c r="O50" s="91">
         <f t="shared" si="1"/>
-        <v>227.18416666666667</v>
+        <v>231.54666666666665</v>
       </c>
       <c r="P50" s="20">
         <v>240.63888888888889</v>
@@ -12697,15 +12849,15 @@
       </c>
       <c r="M51" s="20">
         <f>Dec!J14</f>
-        <v>227.51</v>
+        <v>306.67</v>
       </c>
       <c r="N51" s="91">
         <f t="shared" si="0"/>
-        <v>1739.35</v>
+        <v>1818.51</v>
       </c>
       <c r="O51" s="91">
         <f t="shared" si="1"/>
-        <v>144.94583333333333</v>
+        <v>151.54249999999999</v>
       </c>
       <c r="P51" s="20">
         <v>135.55444444444444</v>
@@ -12767,15 +12919,15 @@
       </c>
       <c r="M52" s="20">
         <f>Dec!J15</f>
-        <v>105</v>
+        <v>106.5</v>
       </c>
       <c r="N52" s="91">
         <f t="shared" si="0"/>
-        <v>1303.83</v>
+        <v>1305.33</v>
       </c>
       <c r="O52" s="91">
         <f t="shared" si="1"/>
-        <v>108.65249999999999</v>
+        <v>108.77749999999999</v>
       </c>
       <c r="P52" s="20">
         <v>113.33888888888889</v>
@@ -12837,15 +12989,15 @@
       </c>
       <c r="M53" s="110">
         <f>Dec!J16</f>
-        <v>209.37</v>
+        <v>291.44</v>
       </c>
       <c r="N53" s="91">
         <f t="shared" si="0"/>
-        <v>5290.2500000000009</v>
+        <v>5372.3200000000006</v>
       </c>
       <c r="O53" s="91">
         <f t="shared" si="1"/>
-        <v>440.85416666666674</v>
+        <v>447.69333333333338</v>
       </c>
       <c r="P53" s="20">
         <v>269.00333333333333</v>
@@ -12907,15 +13059,15 @@
       </c>
       <c r="M54" s="20">
         <f>Dec!J17</f>
-        <v>13.739999999999998</v>
+        <v>17.169999999999998</v>
       </c>
       <c r="N54" s="91">
         <f>SUM(B54:M54)</f>
-        <v>96.82</v>
+        <v>100.25</v>
       </c>
       <c r="O54" s="91">
         <f t="shared" si="1"/>
-        <v>8.0683333333333334</v>
+        <v>8.3541666666666661</v>
       </c>
       <c r="P54" s="20">
         <v>7.7411111111111115</v>
@@ -12977,15 +13129,15 @@
       </c>
       <c r="M55" s="112">
         <f>Dec!J18</f>
-        <v>415.54999999999995</v>
+        <v>438.46</v>
       </c>
       <c r="N55" s="93">
         <f>SUM(B55:M55)</f>
-        <v>2506.91</v>
+        <v>2529.8200000000002</v>
       </c>
       <c r="O55" s="91">
         <f t="shared" si="1"/>
-        <v>208.90916666666666</v>
+        <v>210.81833333333336</v>
       </c>
       <c r="P55" s="20">
         <v>228.49333333333334</v>
@@ -13041,15 +13193,15 @@
       </c>
       <c r="M56" s="78">
         <f t="shared" si="9"/>
-        <v>1192.01</v>
+        <v>1463.2400000000002</v>
       </c>
       <c r="N56" s="91">
         <f t="shared" si="0"/>
-        <v>16543.7</v>
+        <v>16814.930000000004</v>
       </c>
       <c r="O56" s="91">
         <f t="shared" si="1"/>
-        <v>1378.6416666666667</v>
+        <v>1401.2441666666671</v>
       </c>
       <c r="P56" s="79">
         <v>1225.4614285714288</v>
@@ -13130,15 +13282,15 @@
       </c>
       <c r="M58" s="88">
         <f t="shared" si="10"/>
-        <v>2963.1149999999998</v>
+        <v>3254.3450000000003</v>
       </c>
       <c r="N58" s="96">
         <f t="shared" si="0"/>
-        <v>37434.616499999996</v>
+        <v>37725.8465</v>
       </c>
       <c r="O58" s="91">
         <f t="shared" si="1"/>
-        <v>3119.5513749999996</v>
+        <v>3143.8205416666665</v>
       </c>
       <c r="Q58" s="80">
         <f>Q45+Q56</f>
@@ -13209,15 +13361,15 @@
       </c>
       <c r="M60" s="20">
         <f t="shared" si="11"/>
-        <v>17485.97898</v>
+        <v>18895.857380000001</v>
       </c>
       <c r="N60" s="92">
         <f>M60</f>
-        <v>17485.97898</v>
+        <v>18895.857380000001</v>
       </c>
       <c r="O60" s="91">
         <f t="shared" si="1"/>
-        <v>17743.186953333337</v>
+        <v>17860.676820000004</v>
       </c>
       <c r="Q60">
         <f>Q59-Q58</f>
@@ -13266,7 +13418,7 @@
       </c>
       <c r="B1" s="20">
         <f>Jan!J30+Feb!J30+Mar!J30+Apr!J30+May!J30+Jun!J30+Jul!J30+Aug!J30+Sep!J30+Oct!J30+Nov!J30+Dec!J30</f>
-        <v>1210.188979999999</v>
+        <v>2620.0673799999968</v>
       </c>
       <c r="G1" s="121" t="s">
         <v>171</v>
@@ -13446,50 +13598,50 @@
         <f>SUM(N4,R4,V4,Z4,AD4,AH4)</f>
         <v>403.96</v>
       </c>
-      <c r="L4" s="134" t="s">
+      <c r="L4" s="129" t="s">
         <v>105</v>
       </c>
-      <c r="M4" s="134"/>
+      <c r="M4" s="129"/>
       <c r="N4" s="20">
         <f>150-N8</f>
         <v>25.269999999999996</v>
       </c>
-      <c r="P4" s="134" t="s">
+      <c r="P4" s="129" t="s">
         <v>106</v>
       </c>
-      <c r="Q4" s="134"/>
+      <c r="Q4" s="129"/>
       <c r="R4" s="20">
         <f>100-R8</f>
         <v>29.17</v>
       </c>
-      <c r="T4" s="134" t="s">
+      <c r="T4" s="129" t="s">
         <v>107</v>
       </c>
-      <c r="U4" s="134"/>
+      <c r="U4" s="129"/>
       <c r="V4" s="20">
         <f>200-V8</f>
         <v>-62.079999999999984</v>
       </c>
-      <c r="X4" s="134" t="s">
+      <c r="X4" s="129" t="s">
         <v>108</v>
       </c>
-      <c r="Y4" s="134"/>
+      <c r="Y4" s="129"/>
       <c r="Z4" s="20">
         <f>150-Z8</f>
         <v>-12.510000000000019</v>
       </c>
-      <c r="AB4" s="134" t="s">
+      <c r="AB4" s="129" t="s">
         <v>109</v>
       </c>
-      <c r="AC4" s="134"/>
+      <c r="AC4" s="129"/>
       <c r="AD4" s="20">
         <f>100-AD8</f>
         <v>16.590000000000003</v>
       </c>
-      <c r="AF4" s="134" t="s">
+      <c r="AF4" s="129" t="s">
         <v>110</v>
       </c>
-      <c r="AG4" s="134"/>
+      <c r="AG4" s="129"/>
       <c r="AH4" s="20">
         <f>500-AH8</f>
         <v>407.52</v>
@@ -13523,10 +13675,10 @@
       <c r="D6" s="116">
         <v>2480.54</v>
       </c>
-      <c r="L6" s="130" t="s">
+      <c r="L6" s="132" t="s">
         <v>77</v>
       </c>
-      <c r="M6" s="130"/>
+      <c r="M6" s="132"/>
       <c r="N6" s="72"/>
       <c r="O6" s="17"/>
       <c r="P6" s="73"/>
@@ -13566,30 +13718,30 @@
       <c r="H7" s="38"/>
       <c r="I7" s="38"/>
       <c r="J7" s="39"/>
-      <c r="L7" s="131" t="s">
+      <c r="L7" s="133" t="s">
         <v>62</v>
       </c>
-      <c r="M7" s="131"/>
-      <c r="P7" s="132" t="s">
+      <c r="M7" s="133"/>
+      <c r="P7" s="130" t="s">
         <v>61</v>
       </c>
-      <c r="Q7" s="132"/>
-      <c r="T7" s="132" t="s">
+      <c r="Q7" s="130"/>
+      <c r="T7" s="130" t="s">
         <v>68</v>
       </c>
-      <c r="U7" s="132"/>
-      <c r="X7" s="132" t="s">
+      <c r="U7" s="130"/>
+      <c r="X7" s="130" t="s">
         <v>69</v>
       </c>
-      <c r="Y7" s="132"/>
-      <c r="AB7" s="132" t="s">
+      <c r="Y7" s="130"/>
+      <c r="AB7" s="130" t="s">
         <v>81</v>
       </c>
-      <c r="AC7" s="132"/>
-      <c r="AF7" s="132" t="s">
+      <c r="AC7" s="130"/>
+      <c r="AF7" s="130" t="s">
         <v>111</v>
       </c>
-      <c r="AG7" s="132"/>
+      <c r="AG7" s="130"/>
     </row>
     <row r="8" spans="2:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="34" t="s">
@@ -13612,50 +13764,50 @@
       <c r="H8" s="21"/>
       <c r="I8" s="21"/>
       <c r="J8" s="60"/>
-      <c r="L8" s="133" t="s">
+      <c r="L8" s="131" t="s">
         <v>82</v>
       </c>
-      <c r="M8" s="133"/>
+      <c r="M8" s="131"/>
       <c r="N8" s="71">
         <f>SUM(N10:N50)</f>
         <v>124.73</v>
       </c>
-      <c r="P8" s="133" t="s">
+      <c r="P8" s="131" t="s">
         <v>82</v>
       </c>
-      <c r="Q8" s="133"/>
+      <c r="Q8" s="131"/>
       <c r="R8" s="71">
         <f>SUM(R10:R50)</f>
         <v>70.83</v>
       </c>
-      <c r="T8" s="133" t="s">
+      <c r="T8" s="131" t="s">
         <v>82</v>
       </c>
-      <c r="U8" s="133"/>
+      <c r="U8" s="131"/>
       <c r="V8" s="71">
         <f>SUM(V10:V50)</f>
         <v>262.08</v>
       </c>
-      <c r="X8" s="133" t="s">
+      <c r="X8" s="131" t="s">
         <v>82</v>
       </c>
-      <c r="Y8" s="133"/>
+      <c r="Y8" s="131"/>
       <c r="Z8" s="71">
         <f>SUM(Z10:Z50)</f>
         <v>162.51000000000002</v>
       </c>
-      <c r="AB8" s="133" t="s">
+      <c r="AB8" s="131" t="s">
         <v>82</v>
       </c>
-      <c r="AC8" s="133"/>
+      <c r="AC8" s="131"/>
       <c r="AD8" s="71">
         <f>SUM(AD10:AD50)</f>
         <v>83.41</v>
       </c>
-      <c r="AF8" s="133" t="s">
+      <c r="AF8" s="131" t="s">
         <v>82</v>
       </c>
-      <c r="AG8" s="133"/>
+      <c r="AG8" s="131"/>
       <c r="AH8" s="71">
         <f>SUM(AH10:AH50)</f>
         <v>92.480000000000018</v>
@@ -14621,12 +14773,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="AF4:AG4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="X4:Y4"/>
-    <mergeCell ref="AB4:AC4"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="X7:Y7"/>
     <mergeCell ref="AF7:AG7"/>
     <mergeCell ref="L8:M8"/>
     <mergeCell ref="P8:Q8"/>
@@ -14635,11 +14786,12 @@
     <mergeCell ref="AB8:AC8"/>
     <mergeCell ref="AF8:AG8"/>
     <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="AF4:AG4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="X4:Y4"/>
+    <mergeCell ref="AB4:AC4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -14735,50 +14887,50 @@
         <f>SUM(N4,R4,V4,Z4,AD4,AH4)</f>
         <v>15.499999999999986</v>
       </c>
-      <c r="L4" s="134" t="s">
+      <c r="L4" s="129" t="s">
         <v>105</v>
       </c>
-      <c r="M4" s="134"/>
+      <c r="M4" s="129"/>
       <c r="N4" s="20">
         <f>150-N8</f>
         <v>72.78</v>
       </c>
-      <c r="P4" s="134" t="s">
+      <c r="P4" s="129" t="s">
         <v>106</v>
       </c>
-      <c r="Q4" s="134"/>
+      <c r="Q4" s="129"/>
       <c r="R4" s="20">
         <f>100-R8</f>
         <v>-50.670000000000016</v>
       </c>
-      <c r="T4" s="134" t="s">
+      <c r="T4" s="129" t="s">
         <v>107</v>
       </c>
-      <c r="U4" s="134"/>
+      <c r="U4" s="129"/>
       <c r="V4" s="20">
         <f>200-V8</f>
         <v>18.949999999999989</v>
       </c>
-      <c r="X4" s="134" t="s">
+      <c r="X4" s="129" t="s">
         <v>108</v>
       </c>
-      <c r="Y4" s="134"/>
+      <c r="Y4" s="129"/>
       <c r="Z4" s="20">
         <f>150-Z8</f>
         <v>88.64</v>
       </c>
-      <c r="AB4" s="134" t="s">
+      <c r="AB4" s="129" t="s">
         <v>109</v>
       </c>
-      <c r="AC4" s="134"/>
+      <c r="AC4" s="129"/>
       <c r="AD4" s="20">
         <f>100-AD8</f>
         <v>-8.5899999999999892</v>
       </c>
-      <c r="AF4" s="134" t="s">
+      <c r="AF4" s="129" t="s">
         <v>110</v>
       </c>
-      <c r="AG4" s="134"/>
+      <c r="AG4" s="129"/>
       <c r="AH4" s="20">
         <f>300-AH8</f>
         <v>-105.61000000000001</v>
@@ -14812,10 +14964,10 @@
       <c r="D6" s="33">
         <v>2480.54</v>
       </c>
-      <c r="L6" s="130" t="s">
+      <c r="L6" s="132" t="s">
         <v>77</v>
       </c>
-      <c r="M6" s="130"/>
+      <c r="M6" s="132"/>
       <c r="N6" s="72"/>
       <c r="O6" s="17"/>
       <c r="P6" s="73"/>
@@ -14855,30 +15007,30 @@
       <c r="H7" s="38"/>
       <c r="I7" s="38"/>
       <c r="J7" s="39"/>
-      <c r="L7" s="131" t="s">
+      <c r="L7" s="133" t="s">
         <v>62</v>
       </c>
-      <c r="M7" s="131"/>
-      <c r="P7" s="132" t="s">
+      <c r="M7" s="133"/>
+      <c r="P7" s="130" t="s">
         <v>61</v>
       </c>
-      <c r="Q7" s="132"/>
-      <c r="T7" s="132" t="s">
+      <c r="Q7" s="130"/>
+      <c r="T7" s="130" t="s">
         <v>68</v>
       </c>
-      <c r="U7" s="132"/>
-      <c r="X7" s="132" t="s">
+      <c r="U7" s="130"/>
+      <c r="X7" s="130" t="s">
         <v>69</v>
       </c>
-      <c r="Y7" s="132"/>
-      <c r="AB7" s="132" t="s">
+      <c r="Y7" s="130"/>
+      <c r="AB7" s="130" t="s">
         <v>81</v>
       </c>
-      <c r="AC7" s="132"/>
-      <c r="AF7" s="132" t="s">
+      <c r="AC7" s="130"/>
+      <c r="AF7" s="130" t="s">
         <v>111</v>
       </c>
-      <c r="AG7" s="132"/>
+      <c r="AG7" s="130"/>
     </row>
     <row r="8" spans="2:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="34" t="s">
@@ -14901,50 +15053,50 @@
       <c r="H8" s="21"/>
       <c r="I8" s="21"/>
       <c r="J8" s="60"/>
-      <c r="L8" s="133" t="s">
+      <c r="L8" s="131" t="s">
         <v>82</v>
       </c>
-      <c r="M8" s="133"/>
+      <c r="M8" s="131"/>
       <c r="N8" s="71">
         <f>SUM(N10:N50)</f>
         <v>77.22</v>
       </c>
-      <c r="P8" s="133" t="s">
+      <c r="P8" s="131" t="s">
         <v>82</v>
       </c>
-      <c r="Q8" s="133"/>
+      <c r="Q8" s="131"/>
       <c r="R8" s="71">
         <f>SUM(R10:R50)</f>
         <v>150.67000000000002</v>
       </c>
-      <c r="T8" s="133" t="s">
+      <c r="T8" s="131" t="s">
         <v>82</v>
       </c>
-      <c r="U8" s="133"/>
+      <c r="U8" s="131"/>
       <c r="V8" s="71">
         <f>SUM(V10:V50)</f>
         <v>181.05</v>
       </c>
-      <c r="X8" s="133" t="s">
+      <c r="X8" s="131" t="s">
         <v>82</v>
       </c>
-      <c r="Y8" s="133"/>
+      <c r="Y8" s="131"/>
       <c r="Z8" s="71">
         <f>SUM(Z10:Z50)</f>
         <v>61.36</v>
       </c>
-      <c r="AB8" s="133" t="s">
+      <c r="AB8" s="131" t="s">
         <v>82</v>
       </c>
-      <c r="AC8" s="133"/>
+      <c r="AC8" s="131"/>
       <c r="AD8" s="71">
         <f>SUM(AD10:AD50)</f>
         <v>108.58999999999999</v>
       </c>
-      <c r="AF8" s="133" t="s">
+      <c r="AF8" s="131" t="s">
         <v>82</v>
       </c>
-      <c r="AG8" s="133"/>
+      <c r="AG8" s="131"/>
       <c r="AH8" s="71">
         <f>SUM(AH10:AH50)</f>
         <v>405.61</v>
@@ -15917,12 +16069,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="AF4:AG4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="X4:Y4"/>
-    <mergeCell ref="AB4:AC4"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="X7:Y7"/>
     <mergeCell ref="L8:M8"/>
     <mergeCell ref="AF7:AG7"/>
     <mergeCell ref="AF8:AG8"/>
@@ -15931,11 +16082,12 @@
     <mergeCell ref="T8:U8"/>
     <mergeCell ref="P8:Q8"/>
     <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="AF4:AG4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="X4:Y4"/>
+    <mergeCell ref="AB4:AC4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -16032,50 +16184,50 @@
         <f>SUM(N4,R4,V4,Z4,AD4,AH4)</f>
         <v>172.95000000000005</v>
       </c>
-      <c r="L4" s="134" t="s">
+      <c r="L4" s="129" t="s">
         <v>105</v>
       </c>
-      <c r="M4" s="134"/>
+      <c r="M4" s="129"/>
       <c r="N4" s="20">
         <f>150-N8</f>
         <v>-31.170000000000016</v>
       </c>
-      <c r="P4" s="134" t="s">
+      <c r="P4" s="129" t="s">
         <v>106</v>
       </c>
-      <c r="Q4" s="134"/>
+      <c r="Q4" s="129"/>
       <c r="R4" s="20">
         <f>100-R8</f>
         <v>67.81</v>
       </c>
-      <c r="T4" s="134" t="s">
+      <c r="T4" s="129" t="s">
         <v>107</v>
       </c>
-      <c r="U4" s="134"/>
+      <c r="U4" s="129"/>
       <c r="V4" s="20">
         <f>200-V8</f>
         <v>-72.629999999999939</v>
       </c>
-      <c r="X4" s="134" t="s">
+      <c r="X4" s="129" t="s">
         <v>108</v>
       </c>
-      <c r="Y4" s="134"/>
+      <c r="Y4" s="129"/>
       <c r="Z4" s="20">
         <f>150-Z8</f>
         <v>58.480000000000004</v>
       </c>
-      <c r="AB4" s="134" t="s">
+      <c r="AB4" s="129" t="s">
         <v>109</v>
       </c>
-      <c r="AC4" s="134"/>
+      <c r="AC4" s="129"/>
       <c r="AD4" s="20">
         <f>100-AD8</f>
         <v>14.189999999999998</v>
       </c>
-      <c r="AF4" s="134" t="s">
+      <c r="AF4" s="129" t="s">
         <v>110</v>
       </c>
-      <c r="AG4" s="134"/>
+      <c r="AG4" s="129"/>
       <c r="AH4" s="20">
         <f>300-AH8</f>
         <v>136.26999999999998</v>
@@ -16109,10 +16261,10 @@
       <c r="D6" s="33">
         <v>2480.54</v>
       </c>
-      <c r="L6" s="130" t="s">
+      <c r="L6" s="132" t="s">
         <v>77</v>
       </c>
-      <c r="M6" s="130"/>
+      <c r="M6" s="132"/>
       <c r="N6" s="72"/>
       <c r="O6" s="17"/>
       <c r="P6" s="73"/>
@@ -16152,30 +16304,30 @@
       <c r="H7" s="38"/>
       <c r="I7" s="38"/>
       <c r="J7" s="39"/>
-      <c r="L7" s="131" t="s">
+      <c r="L7" s="133" t="s">
         <v>62</v>
       </c>
-      <c r="M7" s="131"/>
-      <c r="P7" s="132" t="s">
+      <c r="M7" s="133"/>
+      <c r="P7" s="130" t="s">
         <v>61</v>
       </c>
-      <c r="Q7" s="132"/>
-      <c r="T7" s="132" t="s">
+      <c r="Q7" s="130"/>
+      <c r="T7" s="130" t="s">
         <v>68</v>
       </c>
-      <c r="U7" s="132"/>
-      <c r="X7" s="132" t="s">
+      <c r="U7" s="130"/>
+      <c r="X7" s="130" t="s">
         <v>69</v>
       </c>
-      <c r="Y7" s="132"/>
-      <c r="AB7" s="132" t="s">
+      <c r="Y7" s="130"/>
+      <c r="AB7" s="130" t="s">
         <v>81</v>
       </c>
-      <c r="AC7" s="132"/>
-      <c r="AF7" s="132" t="s">
+      <c r="AC7" s="130"/>
+      <c r="AF7" s="130" t="s">
         <v>111</v>
       </c>
-      <c r="AG7" s="132"/>
+      <c r="AG7" s="130"/>
     </row>
     <row r="8" spans="2:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="34" t="s">
@@ -16198,50 +16350,50 @@
       <c r="H8" s="21"/>
       <c r="I8" s="21"/>
       <c r="J8" s="60"/>
-      <c r="L8" s="133" t="s">
+      <c r="L8" s="131" t="s">
         <v>82</v>
       </c>
-      <c r="M8" s="133"/>
+      <c r="M8" s="131"/>
       <c r="N8" s="71">
         <f>SUM(N10:N50)</f>
         <v>181.17000000000002</v>
       </c>
-      <c r="P8" s="133" t="s">
+      <c r="P8" s="131" t="s">
         <v>82</v>
       </c>
-      <c r="Q8" s="133"/>
+      <c r="Q8" s="131"/>
       <c r="R8" s="71">
         <f>SUM(R10:R50)</f>
         <v>32.190000000000005</v>
       </c>
-      <c r="T8" s="133" t="s">
+      <c r="T8" s="131" t="s">
         <v>82</v>
       </c>
-      <c r="U8" s="133"/>
+      <c r="U8" s="131"/>
       <c r="V8" s="71">
         <f>SUM(V10:V50)</f>
         <v>272.62999999999994</v>
       </c>
-      <c r="X8" s="133" t="s">
+      <c r="X8" s="131" t="s">
         <v>82</v>
       </c>
-      <c r="Y8" s="133"/>
+      <c r="Y8" s="131"/>
       <c r="Z8" s="71">
         <f>SUM(Z10:Z50)</f>
         <v>91.52</v>
       </c>
-      <c r="AB8" s="133" t="s">
+      <c r="AB8" s="131" t="s">
         <v>82</v>
       </c>
-      <c r="AC8" s="133"/>
+      <c r="AC8" s="131"/>
       <c r="AD8" s="71">
         <f>SUM(AD10:AD50)</f>
         <v>85.81</v>
       </c>
-      <c r="AF8" s="133" t="s">
+      <c r="AF8" s="131" t="s">
         <v>82</v>
       </c>
-      <c r="AG8" s="133"/>
+      <c r="AG8" s="131"/>
       <c r="AH8" s="71">
         <f>SUM(AH10:AH50)</f>
         <v>163.73000000000002</v>
@@ -17237,12 +17389,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="AF4:AG4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="X4:Y4"/>
-    <mergeCell ref="AB4:AC4"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="X7:Y7"/>
     <mergeCell ref="AF7:AG7"/>
     <mergeCell ref="L8:M8"/>
     <mergeCell ref="P8:Q8"/>
@@ -17251,11 +17402,12 @@
     <mergeCell ref="AB8:AC8"/>
     <mergeCell ref="AF8:AG8"/>
     <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="AF4:AG4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="X4:Y4"/>
+    <mergeCell ref="AB4:AC4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -17351,50 +17503,50 @@
         <f>SUM(N4,R4,V4,Z4,AD4,AH4)</f>
         <v>298.64</v>
       </c>
-      <c r="L4" s="134" t="s">
+      <c r="L4" s="129" t="s">
         <v>105</v>
       </c>
-      <c r="M4" s="134"/>
+      <c r="M4" s="129"/>
       <c r="N4" s="20">
         <f>150-N8</f>
         <v>84.12</v>
       </c>
-      <c r="P4" s="134" t="s">
+      <c r="P4" s="129" t="s">
         <v>106</v>
       </c>
-      <c r="Q4" s="134"/>
+      <c r="Q4" s="129"/>
       <c r="R4" s="20">
         <f>100-R8</f>
         <v>-60.54000000000002</v>
       </c>
-      <c r="T4" s="134" t="s">
+      <c r="T4" s="129" t="s">
         <v>107</v>
       </c>
-      <c r="U4" s="134"/>
+      <c r="U4" s="129"/>
       <c r="V4" s="20">
         <f>200-V8</f>
         <v>-39.129999999999967</v>
       </c>
-      <c r="X4" s="134" t="s">
+      <c r="X4" s="129" t="s">
         <v>108</v>
       </c>
-      <c r="Y4" s="134"/>
+      <c r="Y4" s="129"/>
       <c r="Z4" s="20">
         <f>100-Z8</f>
         <v>30.689999999999998</v>
       </c>
-      <c r="AB4" s="134" t="s">
+      <c r="AB4" s="129" t="s">
         <v>109</v>
       </c>
-      <c r="AC4" s="134"/>
+      <c r="AC4" s="129"/>
       <c r="AD4" s="20">
         <f>100-AD8</f>
         <v>59.1</v>
       </c>
-      <c r="AF4" s="134" t="s">
+      <c r="AF4" s="129" t="s">
         <v>110</v>
       </c>
-      <c r="AG4" s="134"/>
+      <c r="AG4" s="129"/>
       <c r="AH4" s="20">
         <f>300-AH8</f>
         <v>224.39999999999998</v>
@@ -17428,10 +17580,10 @@
       <c r="D6" s="116">
         <v>2480.54</v>
       </c>
-      <c r="L6" s="130" t="s">
+      <c r="L6" s="132" t="s">
         <v>77</v>
       </c>
-      <c r="M6" s="130"/>
+      <c r="M6" s="132"/>
       <c r="N6" s="72"/>
       <c r="O6" s="17"/>
       <c r="P6" s="73"/>
@@ -17471,30 +17623,30 @@
       <c r="H7" s="38"/>
       <c r="I7" s="38"/>
       <c r="J7" s="39"/>
-      <c r="L7" s="131" t="s">
+      <c r="L7" s="133" t="s">
         <v>62</v>
       </c>
-      <c r="M7" s="131"/>
-      <c r="P7" s="132" t="s">
+      <c r="M7" s="133"/>
+      <c r="P7" s="130" t="s">
         <v>61</v>
       </c>
-      <c r="Q7" s="132"/>
-      <c r="T7" s="132" t="s">
+      <c r="Q7" s="130"/>
+      <c r="T7" s="130" t="s">
         <v>68</v>
       </c>
-      <c r="U7" s="132"/>
-      <c r="X7" s="132" t="s">
+      <c r="U7" s="130"/>
+      <c r="X7" s="130" t="s">
         <v>69</v>
       </c>
-      <c r="Y7" s="132"/>
-      <c r="AB7" s="132" t="s">
+      <c r="Y7" s="130"/>
+      <c r="AB7" s="130" t="s">
         <v>81</v>
       </c>
-      <c r="AC7" s="132"/>
-      <c r="AF7" s="132" t="s">
+      <c r="AC7" s="130"/>
+      <c r="AF7" s="130" t="s">
         <v>111</v>
       </c>
-      <c r="AG7" s="132"/>
+      <c r="AG7" s="130"/>
     </row>
     <row r="8" spans="2:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="34" t="s">
@@ -17517,50 +17669,50 @@
       <c r="H8" s="21"/>
       <c r="I8" s="21"/>
       <c r="J8" s="60"/>
-      <c r="L8" s="133" t="s">
+      <c r="L8" s="131" t="s">
         <v>82</v>
       </c>
-      <c r="M8" s="133"/>
+      <c r="M8" s="131"/>
       <c r="N8" s="71">
         <f>SUM(N10:N50)</f>
         <v>65.88</v>
       </c>
-      <c r="P8" s="133" t="s">
+      <c r="P8" s="131" t="s">
         <v>82</v>
       </c>
-      <c r="Q8" s="133"/>
+      <c r="Q8" s="131"/>
       <c r="R8" s="71">
         <f>SUM(R10:R50)</f>
         <v>160.54000000000002</v>
       </c>
-      <c r="T8" s="133" t="s">
+      <c r="T8" s="131" t="s">
         <v>82</v>
       </c>
-      <c r="U8" s="133"/>
+      <c r="U8" s="131"/>
       <c r="V8" s="71">
         <f>SUM(V10:V50)</f>
         <v>239.12999999999997</v>
       </c>
-      <c r="X8" s="133" t="s">
+      <c r="X8" s="131" t="s">
         <v>82</v>
       </c>
-      <c r="Y8" s="133"/>
+      <c r="Y8" s="131"/>
       <c r="Z8" s="71">
         <f>SUM(Z10:Z50)</f>
         <v>69.31</v>
       </c>
-      <c r="AB8" s="133" t="s">
+      <c r="AB8" s="131" t="s">
         <v>82</v>
       </c>
-      <c r="AC8" s="133"/>
+      <c r="AC8" s="131"/>
       <c r="AD8" s="71">
         <f>SUM(AD10:AD50)</f>
         <v>40.9</v>
       </c>
-      <c r="AF8" s="133" t="s">
+      <c r="AF8" s="131" t="s">
         <v>82</v>
       </c>
-      <c r="AG8" s="133"/>
+      <c r="AG8" s="131"/>
       <c r="AH8" s="71">
         <f>SUM(AH10:AH50)</f>
         <v>75.600000000000009</v>
@@ -18393,12 +18545,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="AF4:AG4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="X4:Y4"/>
-    <mergeCell ref="AB4:AC4"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="X7:Y7"/>
     <mergeCell ref="AF7:AG7"/>
     <mergeCell ref="L8:M8"/>
     <mergeCell ref="P8:Q8"/>
@@ -18407,11 +18558,12 @@
     <mergeCell ref="AB8:AC8"/>
     <mergeCell ref="AF8:AG8"/>
     <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="AF4:AG4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="X4:Y4"/>
+    <mergeCell ref="AB4:AC4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -18508,50 +18660,50 @@
         <f>SUM(N4,R4,V4,Z4,AD4,AH4)</f>
         <v>-65.710000000000036</v>
       </c>
-      <c r="L4" s="134" t="s">
+      <c r="L4" s="129" t="s">
         <v>105</v>
       </c>
-      <c r="M4" s="134"/>
+      <c r="M4" s="129"/>
       <c r="N4" s="20">
         <f>150-N8</f>
         <v>50.239999999999995</v>
       </c>
-      <c r="P4" s="134" t="s">
+      <c r="P4" s="129" t="s">
         <v>106</v>
       </c>
-      <c r="Q4" s="134"/>
+      <c r="Q4" s="129"/>
       <c r="R4" s="20">
         <f>100-R8</f>
         <v>-20.099999999999994</v>
       </c>
-      <c r="T4" s="134" t="s">
+      <c r="T4" s="129" t="s">
         <v>107</v>
       </c>
-      <c r="U4" s="134"/>
+      <c r="U4" s="129"/>
       <c r="V4" s="20">
         <f>200-V8</f>
         <v>11.120000000000005</v>
       </c>
-      <c r="X4" s="134" t="s">
+      <c r="X4" s="129" t="s">
         <v>108</v>
       </c>
-      <c r="Y4" s="134"/>
+      <c r="Y4" s="129"/>
       <c r="Z4" s="20">
         <f>100-Z8</f>
         <v>-7.8299999999999983</v>
       </c>
-      <c r="AB4" s="134" t="s">
+      <c r="AB4" s="129" t="s">
         <v>109</v>
       </c>
-      <c r="AC4" s="134"/>
+      <c r="AC4" s="129"/>
       <c r="AD4" s="20">
         <f>100-AD8</f>
         <v>-54.180000000000007</v>
       </c>
-      <c r="AF4" s="134" t="s">
+      <c r="AF4" s="129" t="s">
         <v>110</v>
       </c>
-      <c r="AG4" s="134"/>
+      <c r="AG4" s="129"/>
       <c r="AH4" s="20">
         <f>300-AH8</f>
         <v>-44.960000000000036</v>
@@ -18585,10 +18737,10 @@
       <c r="D6" s="33">
         <v>2480.54</v>
       </c>
-      <c r="L6" s="130" t="s">
+      <c r="L6" s="132" t="s">
         <v>77</v>
       </c>
-      <c r="M6" s="130"/>
+      <c r="M6" s="132"/>
       <c r="N6" s="72"/>
       <c r="O6" s="17"/>
       <c r="P6" s="73"/>
@@ -18628,30 +18780,30 @@
       <c r="H7" s="38"/>
       <c r="I7" s="38"/>
       <c r="J7" s="39"/>
-      <c r="L7" s="131" t="s">
+      <c r="L7" s="133" t="s">
         <v>62</v>
       </c>
-      <c r="M7" s="131"/>
-      <c r="P7" s="132" t="s">
+      <c r="M7" s="133"/>
+      <c r="P7" s="130" t="s">
         <v>61</v>
       </c>
-      <c r="Q7" s="132"/>
-      <c r="T7" s="132" t="s">
+      <c r="Q7" s="130"/>
+      <c r="T7" s="130" t="s">
         <v>68</v>
       </c>
-      <c r="U7" s="132"/>
-      <c r="X7" s="132" t="s">
+      <c r="U7" s="130"/>
+      <c r="X7" s="130" t="s">
         <v>69</v>
       </c>
-      <c r="Y7" s="132"/>
-      <c r="AB7" s="132" t="s">
+      <c r="Y7" s="130"/>
+      <c r="AB7" s="130" t="s">
         <v>81</v>
       </c>
-      <c r="AC7" s="132"/>
-      <c r="AF7" s="132" t="s">
+      <c r="AC7" s="130"/>
+      <c r="AF7" s="130" t="s">
         <v>111</v>
       </c>
-      <c r="AG7" s="132"/>
+      <c r="AG7" s="130"/>
     </row>
     <row r="8" spans="2:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="34" t="s">
@@ -18674,50 +18826,50 @@
       <c r="H8" s="21"/>
       <c r="I8" s="21"/>
       <c r="J8" s="60"/>
-      <c r="L8" s="133" t="s">
+      <c r="L8" s="131" t="s">
         <v>82</v>
       </c>
-      <c r="M8" s="133"/>
+      <c r="M8" s="131"/>
       <c r="N8" s="71">
         <f>SUM(N10:N50)</f>
         <v>99.76</v>
       </c>
-      <c r="P8" s="133" t="s">
+      <c r="P8" s="131" t="s">
         <v>82</v>
       </c>
-      <c r="Q8" s="133"/>
+      <c r="Q8" s="131"/>
       <c r="R8" s="71">
         <f>SUM(R10:R50)</f>
         <v>120.1</v>
       </c>
-      <c r="T8" s="133" t="s">
+      <c r="T8" s="131" t="s">
         <v>82</v>
       </c>
-      <c r="U8" s="133"/>
+      <c r="U8" s="131"/>
       <c r="V8" s="71">
         <f>SUM(V10:V50)</f>
         <v>188.88</v>
       </c>
-      <c r="X8" s="133" t="s">
+      <c r="X8" s="131" t="s">
         <v>82</v>
       </c>
-      <c r="Y8" s="133"/>
+      <c r="Y8" s="131"/>
       <c r="Z8" s="71">
         <f>SUM(Z10:Z50)</f>
         <v>107.83</v>
       </c>
-      <c r="AB8" s="133" t="s">
+      <c r="AB8" s="131" t="s">
         <v>82</v>
       </c>
-      <c r="AC8" s="133"/>
+      <c r="AC8" s="131"/>
       <c r="AD8" s="71">
         <f>SUM(AD10:AD50)</f>
         <v>154.18</v>
       </c>
-      <c r="AF8" s="133" t="s">
+      <c r="AF8" s="131" t="s">
         <v>82</v>
       </c>
-      <c r="AG8" s="133"/>
+      <c r="AG8" s="131"/>
       <c r="AH8" s="71">
         <f>SUM(AH10:AH50)</f>
         <v>344.96000000000004</v>
@@ -19714,12 +19866,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="AF4:AG4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="X4:Y4"/>
-    <mergeCell ref="AB4:AC4"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="X7:Y7"/>
     <mergeCell ref="AF7:AG7"/>
     <mergeCell ref="L8:M8"/>
     <mergeCell ref="P8:Q8"/>
@@ -19728,11 +19879,12 @@
     <mergeCell ref="AB8:AC8"/>
     <mergeCell ref="AF8:AG8"/>
     <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="AF4:AG4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="X4:Y4"/>
+    <mergeCell ref="AB4:AC4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -19828,50 +19980,50 @@
         <f>SUM(N4,R4,V4,Z4,AD4,AH4)</f>
         <v>-119.50999999999996</v>
       </c>
-      <c r="L4" s="134" t="s">
+      <c r="L4" s="129" t="s">
         <v>105</v>
       </c>
-      <c r="M4" s="134"/>
+      <c r="M4" s="129"/>
       <c r="N4" s="20">
         <f>100-N8</f>
         <v>-57.879999999999995</v>
       </c>
-      <c r="P4" s="134" t="s">
+      <c r="P4" s="129" t="s">
         <v>106</v>
       </c>
-      <c r="Q4" s="134"/>
+      <c r="Q4" s="129"/>
       <c r="R4" s="20">
         <f>100-R8</f>
         <v>-164.90999999999997</v>
       </c>
-      <c r="T4" s="134" t="s">
+      <c r="T4" s="129" t="s">
         <v>107</v>
       </c>
-      <c r="U4" s="134"/>
+      <c r="U4" s="129"/>
       <c r="V4" s="20">
         <f>200-V8</f>
         <v>-57.94</v>
       </c>
-      <c r="X4" s="134" t="s">
+      <c r="X4" s="129" t="s">
         <v>108</v>
       </c>
-      <c r="Y4" s="134"/>
+      <c r="Y4" s="129"/>
       <c r="Z4" s="20">
         <f>100-Z8</f>
         <v>-20</v>
       </c>
-      <c r="AB4" s="134" t="s">
+      <c r="AB4" s="129" t="s">
         <v>109</v>
       </c>
-      <c r="AC4" s="134"/>
+      <c r="AC4" s="129"/>
       <c r="AD4" s="20">
         <f>100-AD8</f>
         <v>28.75</v>
       </c>
-      <c r="AF4" s="134" t="s">
+      <c r="AF4" s="129" t="s">
         <v>110</v>
       </c>
-      <c r="AG4" s="134"/>
+      <c r="AG4" s="129"/>
       <c r="AH4" s="20">
         <f>300-AH8</f>
         <v>152.47</v>
@@ -19905,10 +20057,10 @@
       <c r="D6" s="116">
         <v>2480.54</v>
       </c>
-      <c r="L6" s="130" t="s">
+      <c r="L6" s="132" t="s">
         <v>77</v>
       </c>
-      <c r="M6" s="130"/>
+      <c r="M6" s="132"/>
       <c r="N6" s="72"/>
       <c r="O6" s="17"/>
       <c r="P6" s="73"/>
@@ -19948,30 +20100,30 @@
       <c r="H7" s="38"/>
       <c r="I7" s="38"/>
       <c r="J7" s="39"/>
-      <c r="L7" s="131" t="s">
+      <c r="L7" s="133" t="s">
         <v>62</v>
       </c>
-      <c r="M7" s="131"/>
-      <c r="P7" s="132" t="s">
+      <c r="M7" s="133"/>
+      <c r="P7" s="130" t="s">
         <v>61</v>
       </c>
-      <c r="Q7" s="132"/>
-      <c r="T7" s="132" t="s">
+      <c r="Q7" s="130"/>
+      <c r="T7" s="130" t="s">
         <v>68</v>
       </c>
-      <c r="U7" s="132"/>
-      <c r="X7" s="132" t="s">
+      <c r="U7" s="130"/>
+      <c r="X7" s="130" t="s">
         <v>69</v>
       </c>
-      <c r="Y7" s="132"/>
-      <c r="AB7" s="132" t="s">
+      <c r="Y7" s="130"/>
+      <c r="AB7" s="130" t="s">
         <v>81</v>
       </c>
-      <c r="AC7" s="132"/>
-      <c r="AF7" s="132" t="s">
+      <c r="AC7" s="130"/>
+      <c r="AF7" s="130" t="s">
         <v>111</v>
       </c>
-      <c r="AG7" s="132"/>
+      <c r="AG7" s="130"/>
     </row>
     <row r="8" spans="2:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="34" t="s">
@@ -19994,50 +20146,50 @@
       <c r="H8" s="21"/>
       <c r="I8" s="21"/>
       <c r="J8" s="60"/>
-      <c r="L8" s="133" t="s">
+      <c r="L8" s="131" t="s">
         <v>82</v>
       </c>
-      <c r="M8" s="133"/>
+      <c r="M8" s="131"/>
       <c r="N8" s="71">
         <f>SUM(N10:N50)</f>
         <v>157.88</v>
       </c>
-      <c r="P8" s="133" t="s">
+      <c r="P8" s="131" t="s">
         <v>82</v>
       </c>
-      <c r="Q8" s="133"/>
+      <c r="Q8" s="131"/>
       <c r="R8" s="71">
         <f>SUM(R10:R50)</f>
         <v>264.90999999999997</v>
       </c>
-      <c r="T8" s="133" t="s">
+      <c r="T8" s="131" t="s">
         <v>82</v>
       </c>
-      <c r="U8" s="133"/>
+      <c r="U8" s="131"/>
       <c r="V8" s="71">
         <f>SUM(V10:V50)</f>
         <v>257.94</v>
       </c>
-      <c r="X8" s="133" t="s">
+      <c r="X8" s="131" t="s">
         <v>82</v>
       </c>
-      <c r="Y8" s="133"/>
+      <c r="Y8" s="131"/>
       <c r="Z8" s="71">
         <f>SUM(Z10:Z50)</f>
         <v>120</v>
       </c>
-      <c r="AB8" s="133" t="s">
+      <c r="AB8" s="131" t="s">
         <v>82</v>
       </c>
-      <c r="AC8" s="133"/>
+      <c r="AC8" s="131"/>
       <c r="AD8" s="71">
         <f>SUM(AD10:AD50)</f>
         <v>71.25</v>
       </c>
-      <c r="AF8" s="133" t="s">
+      <c r="AF8" s="131" t="s">
         <v>82</v>
       </c>
-      <c r="AG8" s="133"/>
+      <c r="AG8" s="131"/>
       <c r="AH8" s="71">
         <f>SUM(AH10:AH50)</f>
         <v>147.53</v>
@@ -21002,12 +21154,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="AF4:AG4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="X4:Y4"/>
-    <mergeCell ref="AB4:AC4"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="X7:Y7"/>
     <mergeCell ref="AF7:AG7"/>
     <mergeCell ref="L8:M8"/>
     <mergeCell ref="P8:Q8"/>
@@ -21016,11 +21167,12 @@
     <mergeCell ref="AB8:AC8"/>
     <mergeCell ref="AF8:AG8"/>
     <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="AF4:AG4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="X4:Y4"/>
+    <mergeCell ref="AB4:AC4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Docs/2016 Personal Finance.xlsx
+++ b/Docs/2016 Personal Finance.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27815"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27907"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17440" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17440" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Financial Breakdown" sheetId="2" r:id="rId1"/>
@@ -2182,18 +2182,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2806,50 +2806,50 @@
         <f>SUM(N4,R4,V4,Z4,AD4,AH4)</f>
         <v>-244.14999999999995</v>
       </c>
-      <c r="L4" s="129" t="s">
+      <c r="L4" s="133" t="s">
         <v>105</v>
       </c>
-      <c r="M4" s="129"/>
+      <c r="M4" s="133"/>
       <c r="N4" s="20">
         <f>150-N8</f>
         <v>19.590000000000003</v>
       </c>
-      <c r="P4" s="129" t="s">
+      <c r="P4" s="133" t="s">
         <v>106</v>
       </c>
-      <c r="Q4" s="129"/>
+      <c r="Q4" s="133"/>
       <c r="R4" s="20">
         <f>100-R8</f>
         <v>-45.300000000000011</v>
       </c>
-      <c r="T4" s="129" t="s">
+      <c r="T4" s="133" t="s">
         <v>107</v>
       </c>
-      <c r="U4" s="129"/>
+      <c r="U4" s="133"/>
       <c r="V4" s="20">
         <f>200-V8</f>
         <v>-52.449999999999989</v>
       </c>
-      <c r="X4" s="129" t="s">
+      <c r="X4" s="133" t="s">
         <v>108</v>
       </c>
-      <c r="Y4" s="129"/>
+      <c r="Y4" s="133"/>
       <c r="Z4" s="20">
         <f>150-Z8</f>
         <v>-76.680000000000007</v>
       </c>
-      <c r="AB4" s="129" t="s">
+      <c r="AB4" s="133" t="s">
         <v>109</v>
       </c>
-      <c r="AC4" s="129"/>
+      <c r="AC4" s="133"/>
       <c r="AD4" s="20">
         <f>100-AD8</f>
         <v>20.120000000000005</v>
       </c>
-      <c r="AF4" s="129" t="s">
+      <c r="AF4" s="133" t="s">
         <v>110</v>
       </c>
-      <c r="AG4" s="129"/>
+      <c r="AG4" s="133"/>
       <c r="AH4" s="20">
         <f>300-AH8</f>
         <v>-109.42999999999995</v>
@@ -2883,10 +2883,10 @@
       <c r="D6" s="125">
         <v>2589.6799999999998</v>
       </c>
-      <c r="L6" s="132" t="s">
+      <c r="L6" s="129" t="s">
         <v>77</v>
       </c>
-      <c r="M6" s="132"/>
+      <c r="M6" s="129"/>
       <c r="N6" s="72"/>
       <c r="O6" s="17"/>
       <c r="P6" s="73"/>
@@ -2926,30 +2926,30 @@
       <c r="H7" s="38"/>
       <c r="I7" s="38"/>
       <c r="J7" s="39"/>
-      <c r="L7" s="133" t="s">
+      <c r="L7" s="130" t="s">
         <v>62</v>
       </c>
-      <c r="M7" s="133"/>
-      <c r="P7" s="130" t="s">
+      <c r="M7" s="130"/>
+      <c r="P7" s="131" t="s">
         <v>61</v>
       </c>
-      <c r="Q7" s="130"/>
-      <c r="T7" s="130" t="s">
+      <c r="Q7" s="131"/>
+      <c r="T7" s="131" t="s">
         <v>68</v>
       </c>
-      <c r="U7" s="130"/>
-      <c r="X7" s="130" t="s">
+      <c r="U7" s="131"/>
+      <c r="X7" s="131" t="s">
         <v>69</v>
       </c>
-      <c r="Y7" s="130"/>
-      <c r="AB7" s="130" t="s">
+      <c r="Y7" s="131"/>
+      <c r="AB7" s="131" t="s">
         <v>81</v>
       </c>
-      <c r="AC7" s="130"/>
-      <c r="AF7" s="130" t="s">
+      <c r="AC7" s="131"/>
+      <c r="AF7" s="131" t="s">
         <v>111</v>
       </c>
-      <c r="AG7" s="130"/>
+      <c r="AG7" s="131"/>
     </row>
     <row r="8" spans="2:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="34" t="s">
@@ -2972,50 +2972,50 @@
       <c r="H8" s="21"/>
       <c r="I8" s="21"/>
       <c r="J8" s="60"/>
-      <c r="L8" s="131" t="s">
+      <c r="L8" s="132" t="s">
         <v>82</v>
       </c>
-      <c r="M8" s="131"/>
+      <c r="M8" s="132"/>
       <c r="N8" s="71">
         <f>SUM(N10:N50)</f>
         <v>130.41</v>
       </c>
-      <c r="P8" s="131" t="s">
+      <c r="P8" s="132" t="s">
         <v>82</v>
       </c>
-      <c r="Q8" s="131"/>
+      <c r="Q8" s="132"/>
       <c r="R8" s="71">
         <f>SUM(R10:R50)</f>
         <v>145.30000000000001</v>
       </c>
-      <c r="T8" s="131" t="s">
+      <c r="T8" s="132" t="s">
         <v>82</v>
       </c>
-      <c r="U8" s="131"/>
+      <c r="U8" s="132"/>
       <c r="V8" s="71">
         <f>SUM(V10:V50)</f>
         <v>252.45</v>
       </c>
-      <c r="X8" s="131" t="s">
+      <c r="X8" s="132" t="s">
         <v>82</v>
       </c>
-      <c r="Y8" s="131"/>
+      <c r="Y8" s="132"/>
       <c r="Z8" s="71">
         <f>SUM(Z10:Z50)</f>
         <v>226.68</v>
       </c>
-      <c r="AB8" s="131" t="s">
+      <c r="AB8" s="132" t="s">
         <v>82</v>
       </c>
-      <c r="AC8" s="131"/>
+      <c r="AC8" s="132"/>
       <c r="AD8" s="71">
         <f>SUM(AD10:AD50)</f>
         <v>79.88</v>
       </c>
-      <c r="AF8" s="131" t="s">
+      <c r="AF8" s="132" t="s">
         <v>82</v>
       </c>
-      <c r="AG8" s="131"/>
+      <c r="AG8" s="132"/>
       <c r="AH8" s="71">
         <f>SUM(AH10:AH50)</f>
         <v>409.42999999999995</v>
@@ -4069,11 +4069,12 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="AF4:AG4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="X4:Y4"/>
+    <mergeCell ref="AB4:AC4"/>
     <mergeCell ref="AF7:AG7"/>
     <mergeCell ref="L8:M8"/>
     <mergeCell ref="P8:Q8"/>
@@ -4082,12 +4083,11 @@
     <mergeCell ref="AB8:AC8"/>
     <mergeCell ref="AF8:AG8"/>
     <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="AF4:AG4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="X4:Y4"/>
-    <mergeCell ref="AB4:AC4"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="X7:Y7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4183,50 +4183,50 @@
         <f>SUM(N4,R4,V4,Z4,AD4,AH4)</f>
         <v>-634.38</v>
       </c>
-      <c r="L4" s="129" t="s">
+      <c r="L4" s="133" t="s">
         <v>105</v>
       </c>
-      <c r="M4" s="129"/>
+      <c r="M4" s="133"/>
       <c r="N4" s="20">
         <f>150-N8</f>
         <v>-69.289999999999964</v>
       </c>
-      <c r="P4" s="129" t="s">
+      <c r="P4" s="133" t="s">
         <v>106</v>
       </c>
-      <c r="Q4" s="129"/>
+      <c r="Q4" s="133"/>
       <c r="R4" s="20">
         <f>100-R8</f>
         <v>62.89</v>
       </c>
-      <c r="T4" s="129" t="s">
+      <c r="T4" s="133" t="s">
         <v>107</v>
       </c>
-      <c r="U4" s="129"/>
+      <c r="U4" s="133"/>
       <c r="V4" s="20">
         <f>200-V8</f>
         <v>-119.64999999999998</v>
       </c>
-      <c r="X4" s="129" t="s">
+      <c r="X4" s="133" t="s">
         <v>108</v>
       </c>
-      <c r="Y4" s="129"/>
+      <c r="Y4" s="133"/>
       <c r="Z4" s="20">
         <f>150-Z8</f>
         <v>-144.33000000000004</v>
       </c>
-      <c r="AB4" s="129" t="s">
+      <c r="AB4" s="133" t="s">
         <v>109</v>
       </c>
-      <c r="AC4" s="129"/>
+      <c r="AC4" s="133"/>
       <c r="AD4" s="20">
         <f>100-AD8</f>
         <v>-10.129999999999995</v>
       </c>
-      <c r="AF4" s="129" t="s">
+      <c r="AF4" s="133" t="s">
         <v>110</v>
       </c>
-      <c r="AG4" s="129"/>
+      <c r="AG4" s="133"/>
       <c r="AH4" s="20">
         <f>300-AH8</f>
         <v>-353.87</v>
@@ -4260,10 +4260,10 @@
       <c r="D6" s="33">
         <v>2589.6799999999998</v>
       </c>
-      <c r="L6" s="132" t="s">
+      <c r="L6" s="129" t="s">
         <v>77</v>
       </c>
-      <c r="M6" s="132"/>
+      <c r="M6" s="129"/>
       <c r="N6" s="72"/>
       <c r="O6" s="17"/>
       <c r="P6" s="73"/>
@@ -4303,30 +4303,30 @@
       <c r="H7" s="38"/>
       <c r="I7" s="38"/>
       <c r="J7" s="39"/>
-      <c r="L7" s="133" t="s">
+      <c r="L7" s="130" t="s">
         <v>62</v>
       </c>
-      <c r="M7" s="133"/>
-      <c r="P7" s="130" t="s">
+      <c r="M7" s="130"/>
+      <c r="P7" s="131" t="s">
         <v>61</v>
       </c>
-      <c r="Q7" s="130"/>
-      <c r="T7" s="130" t="s">
+      <c r="Q7" s="131"/>
+      <c r="T7" s="131" t="s">
         <v>68</v>
       </c>
-      <c r="U7" s="130"/>
-      <c r="X7" s="130" t="s">
+      <c r="U7" s="131"/>
+      <c r="X7" s="131" t="s">
         <v>69</v>
       </c>
-      <c r="Y7" s="130"/>
-      <c r="AB7" s="130" t="s">
+      <c r="Y7" s="131"/>
+      <c r="AB7" s="131" t="s">
         <v>81</v>
       </c>
-      <c r="AC7" s="130"/>
-      <c r="AF7" s="130" t="s">
+      <c r="AC7" s="131"/>
+      <c r="AF7" s="131" t="s">
         <v>111</v>
       </c>
-      <c r="AG7" s="130"/>
+      <c r="AG7" s="131"/>
     </row>
     <row r="8" spans="2:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="34" t="s">
@@ -4349,50 +4349,50 @@
       <c r="H8" s="21"/>
       <c r="I8" s="21"/>
       <c r="J8" s="60"/>
-      <c r="L8" s="131" t="s">
+      <c r="L8" s="132" t="s">
         <v>82</v>
       </c>
-      <c r="M8" s="131"/>
+      <c r="M8" s="132"/>
       <c r="N8" s="71">
         <f>SUM(N10:N50)</f>
         <v>219.28999999999996</v>
       </c>
-      <c r="P8" s="131" t="s">
+      <c r="P8" s="132" t="s">
         <v>82</v>
       </c>
-      <c r="Q8" s="131"/>
+      <c r="Q8" s="132"/>
       <c r="R8" s="71">
         <f>SUM(R10:R50)</f>
         <v>37.11</v>
       </c>
-      <c r="T8" s="131" t="s">
+      <c r="T8" s="132" t="s">
         <v>82</v>
       </c>
-      <c r="U8" s="131"/>
+      <c r="U8" s="132"/>
       <c r="V8" s="71">
         <f>SUM(V10:V50)</f>
         <v>319.64999999999998</v>
       </c>
-      <c r="X8" s="131" t="s">
+      <c r="X8" s="132" t="s">
         <v>82</v>
       </c>
-      <c r="Y8" s="131"/>
+      <c r="Y8" s="132"/>
       <c r="Z8" s="71">
         <f>SUM(Z10:Z50)</f>
         <v>294.33000000000004</v>
       </c>
-      <c r="AB8" s="131" t="s">
+      <c r="AB8" s="132" t="s">
         <v>82</v>
       </c>
-      <c r="AC8" s="131"/>
+      <c r="AC8" s="132"/>
       <c r="AD8" s="71">
         <f>SUM(AD10:AD50)</f>
         <v>110.13</v>
       </c>
-      <c r="AF8" s="131" t="s">
+      <c r="AF8" s="132" t="s">
         <v>82</v>
       </c>
-      <c r="AG8" s="131"/>
+      <c r="AG8" s="132"/>
       <c r="AH8" s="71">
         <f>SUM(AH10:AH50)</f>
         <v>653.87</v>
@@ -5496,11 +5496,12 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="AF4:AG4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="X4:Y4"/>
+    <mergeCell ref="AB4:AC4"/>
     <mergeCell ref="AF7:AG7"/>
     <mergeCell ref="L8:M8"/>
     <mergeCell ref="P8:Q8"/>
@@ -5509,12 +5510,11 @@
     <mergeCell ref="AB8:AC8"/>
     <mergeCell ref="AF8:AG8"/>
     <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="AF4:AG4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="X4:Y4"/>
-    <mergeCell ref="AB4:AC4"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="X7:Y7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5609,50 +5609,50 @@
         <f>SUM(N4,R4,V4,Z4,AD4,AH4)</f>
         <v>-197.77999999999997</v>
       </c>
-      <c r="L4" s="129" t="s">
+      <c r="L4" s="133" t="s">
         <v>105</v>
       </c>
-      <c r="M4" s="129"/>
+      <c r="M4" s="133"/>
       <c r="N4" s="20">
         <f>60-N8</f>
         <v>19.560000000000002</v>
       </c>
-      <c r="P4" s="129" t="s">
+      <c r="P4" s="133" t="s">
         <v>106</v>
       </c>
-      <c r="Q4" s="129"/>
+      <c r="Q4" s="133"/>
       <c r="R4" s="20">
         <f>50-R8</f>
         <v>-95.230000000000018</v>
       </c>
-      <c r="T4" s="129" t="s">
+      <c r="T4" s="133" t="s">
         <v>107</v>
       </c>
-      <c r="U4" s="129"/>
+      <c r="U4" s="133"/>
       <c r="V4" s="20">
         <f>120-V8</f>
         <v>-71.94</v>
       </c>
-      <c r="X4" s="129" t="s">
+      <c r="X4" s="133" t="s">
         <v>108</v>
       </c>
-      <c r="Y4" s="129"/>
+      <c r="Y4" s="133"/>
       <c r="Z4" s="20">
         <f>100-Z8</f>
         <v>13.549999999999997</v>
       </c>
-      <c r="AB4" s="129" t="s">
+      <c r="AB4" s="133" t="s">
         <v>109</v>
       </c>
-      <c r="AC4" s="129"/>
+      <c r="AC4" s="133"/>
       <c r="AD4" s="20">
         <f>50-AD8</f>
         <v>-235.89999999999998</v>
       </c>
-      <c r="AF4" s="129" t="s">
+      <c r="AF4" s="133" t="s">
         <v>110</v>
       </c>
-      <c r="AG4" s="129"/>
+      <c r="AG4" s="133"/>
       <c r="AH4" s="20">
         <f>300-AH8</f>
         <v>172.18</v>
@@ -5686,10 +5686,10 @@
       <c r="D6" s="116">
         <v>2589.6799999999998</v>
       </c>
-      <c r="L6" s="132" t="s">
+      <c r="L6" s="129" t="s">
         <v>77</v>
       </c>
-      <c r="M6" s="132"/>
+      <c r="M6" s="129"/>
       <c r="N6" s="72"/>
       <c r="O6" s="17"/>
       <c r="P6" s="73"/>
@@ -5729,30 +5729,30 @@
       <c r="H7" s="38"/>
       <c r="I7" s="38"/>
       <c r="J7" s="39"/>
-      <c r="L7" s="133" t="s">
+      <c r="L7" s="130" t="s">
         <v>62</v>
       </c>
-      <c r="M7" s="133"/>
-      <c r="P7" s="130" t="s">
+      <c r="M7" s="130"/>
+      <c r="P7" s="131" t="s">
         <v>61</v>
       </c>
-      <c r="Q7" s="130"/>
-      <c r="T7" s="130" t="s">
+      <c r="Q7" s="131"/>
+      <c r="T7" s="131" t="s">
         <v>68</v>
       </c>
-      <c r="U7" s="130"/>
-      <c r="X7" s="130" t="s">
+      <c r="U7" s="131"/>
+      <c r="X7" s="131" t="s">
         <v>69</v>
       </c>
-      <c r="Y7" s="130"/>
-      <c r="AB7" s="130" t="s">
+      <c r="Y7" s="131"/>
+      <c r="AB7" s="131" t="s">
         <v>81</v>
       </c>
-      <c r="AC7" s="130"/>
-      <c r="AF7" s="130" t="s">
+      <c r="AC7" s="131"/>
+      <c r="AF7" s="131" t="s">
         <v>111</v>
       </c>
-      <c r="AG7" s="130"/>
+      <c r="AG7" s="131"/>
     </row>
     <row r="8" spans="2:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="34" t="s">
@@ -5775,50 +5775,50 @@
       <c r="H8" s="21"/>
       <c r="I8" s="21"/>
       <c r="J8" s="60"/>
-      <c r="L8" s="131" t="s">
+      <c r="L8" s="132" t="s">
         <v>82</v>
       </c>
-      <c r="M8" s="131"/>
+      <c r="M8" s="132"/>
       <c r="N8" s="71">
         <f>SUM(N10:N50)</f>
         <v>40.44</v>
       </c>
-      <c r="P8" s="131" t="s">
+      <c r="P8" s="132" t="s">
         <v>82</v>
       </c>
-      <c r="Q8" s="131"/>
+      <c r="Q8" s="132"/>
       <c r="R8" s="71">
         <f>SUM(R10:R50)</f>
         <v>145.23000000000002</v>
       </c>
-      <c r="T8" s="131" t="s">
+      <c r="T8" s="132" t="s">
         <v>82</v>
       </c>
-      <c r="U8" s="131"/>
+      <c r="U8" s="132"/>
       <c r="V8" s="71">
         <f>SUM(V10:V50)</f>
         <v>191.94</v>
       </c>
-      <c r="X8" s="131" t="s">
+      <c r="X8" s="132" t="s">
         <v>82</v>
       </c>
-      <c r="Y8" s="131"/>
+      <c r="Y8" s="132"/>
       <c r="Z8" s="71">
         <f>SUM(Z10:Z50)</f>
         <v>86.45</v>
       </c>
-      <c r="AB8" s="131" t="s">
+      <c r="AB8" s="132" t="s">
         <v>82</v>
       </c>
-      <c r="AC8" s="131"/>
+      <c r="AC8" s="132"/>
       <c r="AD8" s="71">
         <f>SUM(AD10:AD50)</f>
         <v>285.89999999999998</v>
       </c>
-      <c r="AF8" s="131" t="s">
+      <c r="AF8" s="132" t="s">
         <v>82</v>
       </c>
-      <c r="AG8" s="131"/>
+      <c r="AG8" s="132"/>
       <c r="AH8" s="71">
         <f>SUM(AH10:AH50)</f>
         <v>127.82</v>
@@ -6682,11 +6682,12 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="AF4:AG4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="X4:Y4"/>
+    <mergeCell ref="AB4:AC4"/>
     <mergeCell ref="AF7:AG7"/>
     <mergeCell ref="L8:M8"/>
     <mergeCell ref="P8:Q8"/>
@@ -6695,12 +6696,11 @@
     <mergeCell ref="AB8:AC8"/>
     <mergeCell ref="AF8:AG8"/>
     <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="AF4:AG4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="X4:Y4"/>
-    <mergeCell ref="AB4:AC4"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="X7:Y7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6796,50 +6796,50 @@
         <f>SUM(N4,R4,V4,Z4,AD4,AH4)</f>
         <v>-2035.6000000000004</v>
       </c>
-      <c r="L4" s="129" t="s">
+      <c r="L4" s="133" t="s">
         <v>105</v>
       </c>
-      <c r="M4" s="129"/>
+      <c r="M4" s="133"/>
       <c r="N4" s="20">
         <f>150-N8</f>
         <v>10.389999999999986</v>
       </c>
-      <c r="P4" s="129" t="s">
+      <c r="P4" s="133" t="s">
         <v>106</v>
       </c>
-      <c r="Q4" s="129"/>
+      <c r="Q4" s="133"/>
       <c r="R4" s="20">
         <f>100-R8</f>
         <v>9.8799999999999955</v>
       </c>
-      <c r="T4" s="129" t="s">
+      <c r="T4" s="133" t="s">
         <v>107</v>
       </c>
-      <c r="U4" s="129"/>
+      <c r="U4" s="133"/>
       <c r="V4" s="20">
         <f>200-V8</f>
         <v>-45.319999999999993</v>
       </c>
-      <c r="X4" s="129" t="s">
+      <c r="X4" s="133" t="s">
         <v>108</v>
       </c>
-      <c r="Y4" s="129"/>
+      <c r="Y4" s="133"/>
       <c r="Z4" s="20">
         <f>100-Z8</f>
         <v>-66.089999999999975</v>
       </c>
-      <c r="AB4" s="129" t="s">
+      <c r="AB4" s="133" t="s">
         <v>109</v>
       </c>
-      <c r="AC4" s="129"/>
+      <c r="AC4" s="133"/>
       <c r="AD4" s="20">
         <f>100-AD8</f>
         <v>-58.779999999999973</v>
       </c>
-      <c r="AF4" s="129" t="s">
+      <c r="AF4" s="133" t="s">
         <v>110</v>
       </c>
-      <c r="AG4" s="129"/>
+      <c r="AG4" s="133"/>
       <c r="AH4" s="20">
         <f>500-AH8</f>
         <v>-1885.6800000000003</v>
@@ -6873,10 +6873,10 @@
       <c r="D6" s="33">
         <v>2589.6799999999998</v>
       </c>
-      <c r="L6" s="132" t="s">
+      <c r="L6" s="129" t="s">
         <v>77</v>
       </c>
-      <c r="M6" s="132"/>
+      <c r="M6" s="129"/>
       <c r="N6" s="72"/>
       <c r="O6" s="17"/>
       <c r="P6" s="73"/>
@@ -6916,30 +6916,30 @@
       <c r="H7" s="38"/>
       <c r="I7" s="38"/>
       <c r="J7" s="39"/>
-      <c r="L7" s="133" t="s">
+      <c r="L7" s="130" t="s">
         <v>62</v>
       </c>
-      <c r="M7" s="133"/>
-      <c r="P7" s="130" t="s">
+      <c r="M7" s="130"/>
+      <c r="P7" s="131" t="s">
         <v>61</v>
       </c>
-      <c r="Q7" s="130"/>
-      <c r="T7" s="130" t="s">
+      <c r="Q7" s="131"/>
+      <c r="T7" s="131" t="s">
         <v>68</v>
       </c>
-      <c r="U7" s="130"/>
-      <c r="X7" s="130" t="s">
+      <c r="U7" s="131"/>
+      <c r="X7" s="131" t="s">
         <v>69</v>
       </c>
-      <c r="Y7" s="130"/>
-      <c r="AB7" s="130" t="s">
+      <c r="Y7" s="131"/>
+      <c r="AB7" s="131" t="s">
         <v>81</v>
       </c>
-      <c r="AC7" s="130"/>
-      <c r="AF7" s="130" t="s">
+      <c r="AC7" s="131"/>
+      <c r="AF7" s="131" t="s">
         <v>111</v>
       </c>
-      <c r="AG7" s="130"/>
+      <c r="AG7" s="131"/>
     </row>
     <row r="8" spans="2:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="34" t="s">
@@ -6963,50 +6963,50 @@
       <c r="H8" s="21"/>
       <c r="I8" s="21"/>
       <c r="J8" s="60"/>
-      <c r="L8" s="131" t="s">
+      <c r="L8" s="132" t="s">
         <v>82</v>
       </c>
-      <c r="M8" s="131"/>
+      <c r="M8" s="132"/>
       <c r="N8" s="71">
         <f>SUM(N10:N50)</f>
         <v>139.61000000000001</v>
       </c>
-      <c r="P8" s="131" t="s">
+      <c r="P8" s="132" t="s">
         <v>82</v>
       </c>
-      <c r="Q8" s="131"/>
+      <c r="Q8" s="132"/>
       <c r="R8" s="71">
         <f>SUM(R10:R50)</f>
         <v>90.12</v>
       </c>
-      <c r="T8" s="131" t="s">
+      <c r="T8" s="132" t="s">
         <v>82</v>
       </c>
-      <c r="U8" s="131"/>
+      <c r="U8" s="132"/>
       <c r="V8" s="71">
         <f>SUM(V10:V50)</f>
         <v>245.32</v>
       </c>
-      <c r="X8" s="131" t="s">
+      <c r="X8" s="132" t="s">
         <v>82</v>
       </c>
-      <c r="Y8" s="131"/>
+      <c r="Y8" s="132"/>
       <c r="Z8" s="71">
         <f>SUM(Z10:Z50)</f>
         <v>166.08999999999997</v>
       </c>
-      <c r="AB8" s="131" t="s">
+      <c r="AB8" s="132" t="s">
         <v>82</v>
       </c>
-      <c r="AC8" s="131"/>
+      <c r="AC8" s="132"/>
       <c r="AD8" s="71">
         <f>SUM(AD10:AD50)</f>
         <v>158.77999999999997</v>
       </c>
-      <c r="AF8" s="131" t="s">
+      <c r="AF8" s="132" t="s">
         <v>82</v>
       </c>
-      <c r="AG8" s="131"/>
+      <c r="AG8" s="132"/>
       <c r="AH8" s="71">
         <f>SUM(AH10:AH50)</f>
         <v>2385.6800000000003</v>
@@ -7940,11 +7940,12 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="AF4:AG4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="X4:Y4"/>
+    <mergeCell ref="AB4:AC4"/>
     <mergeCell ref="AF7:AG7"/>
     <mergeCell ref="L8:M8"/>
     <mergeCell ref="P8:Q8"/>
@@ -7953,12 +7954,11 @@
     <mergeCell ref="AB8:AC8"/>
     <mergeCell ref="AF8:AG8"/>
     <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="AF4:AG4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="X4:Y4"/>
-    <mergeCell ref="AB4:AC4"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="X7:Y7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8053,50 +8053,50 @@
         <f>SUM(N4,R4,V4,Z4,AD4,AH4)</f>
         <v>8.829999999999913</v>
       </c>
-      <c r="L4" s="129" t="s">
+      <c r="L4" s="133" t="s">
         <v>105</v>
       </c>
-      <c r="M4" s="129"/>
+      <c r="M4" s="133"/>
       <c r="N4" s="20">
         <f>150-N8</f>
         <v>45.72</v>
       </c>
-      <c r="P4" s="129" t="s">
+      <c r="P4" s="133" t="s">
         <v>106</v>
       </c>
-      <c r="Q4" s="129"/>
+      <c r="Q4" s="133"/>
       <c r="R4" s="20">
         <f>100-R8</f>
         <v>-106.17000000000002</v>
       </c>
-      <c r="T4" s="129" t="s">
+      <c r="T4" s="133" t="s">
         <v>107</v>
       </c>
-      <c r="U4" s="129"/>
+      <c r="U4" s="133"/>
       <c r="V4" s="20">
         <f>200-V8</f>
         <v>-10.790000000000049</v>
       </c>
-      <c r="X4" s="129" t="s">
+      <c r="X4" s="133" t="s">
         <v>108</v>
       </c>
-      <c r="Y4" s="129"/>
+      <c r="Y4" s="133"/>
       <c r="Z4" s="20">
         <f>100-Z8</f>
         <v>-25.760000000000005</v>
       </c>
-      <c r="AB4" s="129" t="s">
+      <c r="AB4" s="133" t="s">
         <v>109</v>
       </c>
-      <c r="AC4" s="129"/>
+      <c r="AC4" s="133"/>
       <c r="AD4" s="20">
         <f>100-AD8</f>
         <v>80</v>
       </c>
-      <c r="AF4" s="129" t="s">
+      <c r="AF4" s="133" t="s">
         <v>110</v>
       </c>
-      <c r="AG4" s="129"/>
+      <c r="AG4" s="133"/>
       <c r="AH4" s="20">
         <f>300-AH8</f>
         <v>25.829999999999984</v>
@@ -8130,10 +8130,10 @@
       <c r="D6" s="33">
         <v>2589.6799999999998</v>
       </c>
-      <c r="L6" s="132" t="s">
+      <c r="L6" s="129" t="s">
         <v>77</v>
       </c>
-      <c r="M6" s="132"/>
+      <c r="M6" s="129"/>
       <c r="N6" s="72"/>
       <c r="O6" s="17"/>
       <c r="P6" s="73"/>
@@ -8173,30 +8173,30 @@
       <c r="H7" s="38"/>
       <c r="I7" s="38"/>
       <c r="J7" s="39"/>
-      <c r="L7" s="133" t="s">
+      <c r="L7" s="130" t="s">
         <v>62</v>
       </c>
-      <c r="M7" s="133"/>
-      <c r="P7" s="130" t="s">
+      <c r="M7" s="130"/>
+      <c r="P7" s="131" t="s">
         <v>61</v>
       </c>
-      <c r="Q7" s="130"/>
-      <c r="T7" s="130" t="s">
+      <c r="Q7" s="131"/>
+      <c r="T7" s="131" t="s">
         <v>68</v>
       </c>
-      <c r="U7" s="130"/>
-      <c r="X7" s="130" t="s">
+      <c r="U7" s="131"/>
+      <c r="X7" s="131" t="s">
         <v>69</v>
       </c>
-      <c r="Y7" s="130"/>
-      <c r="AB7" s="130" t="s">
+      <c r="Y7" s="131"/>
+      <c r="AB7" s="131" t="s">
         <v>81</v>
       </c>
-      <c r="AC7" s="130"/>
-      <c r="AF7" s="130" t="s">
+      <c r="AC7" s="131"/>
+      <c r="AF7" s="131" t="s">
         <v>111</v>
       </c>
-      <c r="AG7" s="130"/>
+      <c r="AG7" s="131"/>
     </row>
     <row r="8" spans="2:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="34" t="s">
@@ -8219,50 +8219,50 @@
       <c r="H8" s="21"/>
       <c r="I8" s="21"/>
       <c r="J8" s="60"/>
-      <c r="L8" s="131" t="s">
+      <c r="L8" s="132" t="s">
         <v>82</v>
       </c>
-      <c r="M8" s="131"/>
+      <c r="M8" s="132"/>
       <c r="N8" s="71">
         <f>SUM(N10:N50)</f>
         <v>104.28</v>
       </c>
-      <c r="P8" s="131" t="s">
+      <c r="P8" s="132" t="s">
         <v>82</v>
       </c>
-      <c r="Q8" s="131"/>
+      <c r="Q8" s="132"/>
       <c r="R8" s="71">
         <f>SUM(R10:R50)</f>
         <v>206.17000000000002</v>
       </c>
-      <c r="T8" s="131" t="s">
+      <c r="T8" s="132" t="s">
         <v>82</v>
       </c>
-      <c r="U8" s="131"/>
+      <c r="U8" s="132"/>
       <c r="V8" s="71">
         <f>SUM(V10:V50)</f>
         <v>210.79000000000005</v>
       </c>
-      <c r="X8" s="131" t="s">
+      <c r="X8" s="132" t="s">
         <v>82</v>
       </c>
-      <c r="Y8" s="131"/>
+      <c r="Y8" s="132"/>
       <c r="Z8" s="71">
         <f>SUM(Z10:Z50)</f>
         <v>125.76</v>
       </c>
-      <c r="AB8" s="131" t="s">
+      <c r="AB8" s="132" t="s">
         <v>82</v>
       </c>
-      <c r="AC8" s="131"/>
+      <c r="AC8" s="132"/>
       <c r="AD8" s="71">
         <f>SUM(AD10:AD50)</f>
         <v>20</v>
       </c>
-      <c r="AF8" s="131" t="s">
+      <c r="AF8" s="132" t="s">
         <v>82</v>
       </c>
-      <c r="AG8" s="131"/>
+      <c r="AG8" s="132"/>
       <c r="AH8" s="71">
         <f>SUM(AH10:AH50)</f>
         <v>274.17</v>
@@ -9206,11 +9206,12 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="AF4:AG4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="X4:Y4"/>
+    <mergeCell ref="AB4:AC4"/>
     <mergeCell ref="AF7:AG7"/>
     <mergeCell ref="L8:M8"/>
     <mergeCell ref="P8:Q8"/>
@@ -9219,12 +9220,11 @@
     <mergeCell ref="AB8:AC8"/>
     <mergeCell ref="AF8:AG8"/>
     <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="AF4:AG4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="X4:Y4"/>
-    <mergeCell ref="AB4:AC4"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="X7:Y7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9234,7 +9234,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AH36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
       <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
@@ -9319,50 +9319,50 @@
         <f>SUM(N4,R4,V4,Z4,AD4,AH4)</f>
         <v>-57.610000000000014</v>
       </c>
-      <c r="L4" s="129" t="s">
+      <c r="L4" s="133" t="s">
         <v>105</v>
       </c>
-      <c r="M4" s="129"/>
+      <c r="M4" s="133"/>
       <c r="N4" s="20">
         <f>150-N8</f>
         <v>43.069999999999993</v>
       </c>
-      <c r="P4" s="129" t="s">
+      <c r="P4" s="133" t="s">
         <v>106</v>
       </c>
-      <c r="Q4" s="129"/>
+      <c r="Q4" s="133"/>
       <c r="R4" s="20">
         <f>100-R8</f>
         <v>60.63</v>
       </c>
-      <c r="T4" s="129" t="s">
+      <c r="T4" s="133" t="s">
         <v>107</v>
       </c>
-      <c r="U4" s="129"/>
+      <c r="U4" s="133"/>
       <c r="V4" s="20">
         <f>200-V8</f>
         <v>43.300000000000011</v>
       </c>
-      <c r="X4" s="129" t="s">
+      <c r="X4" s="133" t="s">
         <v>108</v>
       </c>
-      <c r="Y4" s="129"/>
+      <c r="Y4" s="133"/>
       <c r="Z4" s="20">
         <f>100-Z8</f>
         <v>-206.67000000000002</v>
       </c>
-      <c r="AB4" s="129" t="s">
+      <c r="AB4" s="133" t="s">
         <v>109</v>
       </c>
-      <c r="AC4" s="129"/>
+      <c r="AC4" s="133"/>
       <c r="AD4" s="20">
         <f>100-AD8</f>
         <v>-6.5</v>
       </c>
-      <c r="AF4" s="129" t="s">
+      <c r="AF4" s="133" t="s">
         <v>110</v>
       </c>
-      <c r="AG4" s="129"/>
+      <c r="AG4" s="133"/>
       <c r="AH4" s="20">
         <f>300-AH8</f>
         <v>8.5600000000000023</v>
@@ -9396,10 +9396,10 @@
       <c r="D6" s="33">
         <v>2589.6799999999998</v>
       </c>
-      <c r="L6" s="132" t="s">
+      <c r="L6" s="129" t="s">
         <v>77</v>
       </c>
-      <c r="M6" s="132"/>
+      <c r="M6" s="129"/>
       <c r="N6" s="72"/>
       <c r="O6" s="17"/>
       <c r="P6" s="73"/>
@@ -9439,30 +9439,30 @@
       <c r="H7" s="38"/>
       <c r="I7" s="38"/>
       <c r="J7" s="39"/>
-      <c r="L7" s="133" t="s">
+      <c r="L7" s="130" t="s">
         <v>62</v>
       </c>
-      <c r="M7" s="133"/>
-      <c r="P7" s="130" t="s">
+      <c r="M7" s="130"/>
+      <c r="P7" s="131" t="s">
         <v>61</v>
       </c>
-      <c r="Q7" s="130"/>
-      <c r="T7" s="130" t="s">
+      <c r="Q7" s="131"/>
+      <c r="T7" s="131" t="s">
         <v>68</v>
       </c>
-      <c r="U7" s="130"/>
-      <c r="X7" s="130" t="s">
+      <c r="U7" s="131"/>
+      <c r="X7" s="131" t="s">
         <v>69</v>
       </c>
-      <c r="Y7" s="130"/>
-      <c r="AB7" s="130" t="s">
+      <c r="Y7" s="131"/>
+      <c r="AB7" s="131" t="s">
         <v>81</v>
       </c>
-      <c r="AC7" s="130"/>
-      <c r="AF7" s="130" t="s">
+      <c r="AC7" s="131"/>
+      <c r="AF7" s="131" t="s">
         <v>111</v>
       </c>
-      <c r="AG7" s="130"/>
+      <c r="AG7" s="131"/>
     </row>
     <row r="8" spans="2:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="34" t="s">
@@ -9485,50 +9485,50 @@
       <c r="H8" s="21"/>
       <c r="I8" s="21"/>
       <c r="J8" s="60"/>
-      <c r="L8" s="131" t="s">
+      <c r="L8" s="132" t="s">
         <v>82</v>
       </c>
-      <c r="M8" s="131"/>
+      <c r="M8" s="132"/>
       <c r="N8" s="71">
         <f>SUM(N10:N50)</f>
         <v>106.93</v>
       </c>
-      <c r="P8" s="131" t="s">
+      <c r="P8" s="132" t="s">
         <v>82</v>
       </c>
-      <c r="Q8" s="131"/>
+      <c r="Q8" s="132"/>
       <c r="R8" s="71">
         <f>SUM(R10:R50)</f>
         <v>39.369999999999997</v>
       </c>
-      <c r="T8" s="131" t="s">
+      <c r="T8" s="132" t="s">
         <v>82</v>
       </c>
-      <c r="U8" s="131"/>
+      <c r="U8" s="132"/>
       <c r="V8" s="71">
         <f>SUM(V10:V50)</f>
         <v>156.69999999999999</v>
       </c>
-      <c r="X8" s="131" t="s">
+      <c r="X8" s="132" t="s">
         <v>82</v>
       </c>
-      <c r="Y8" s="131"/>
+      <c r="Y8" s="132"/>
       <c r="Z8" s="71">
         <f>SUM(Z10:Z50)</f>
         <v>306.67</v>
       </c>
-      <c r="AB8" s="131" t="s">
+      <c r="AB8" s="132" t="s">
         <v>82</v>
       </c>
-      <c r="AC8" s="131"/>
+      <c r="AC8" s="132"/>
       <c r="AD8" s="71">
         <f>SUM(AD10:AD50)</f>
         <v>106.5</v>
       </c>
-      <c r="AF8" s="131" t="s">
+      <c r="AF8" s="132" t="s">
         <v>82</v>
       </c>
-      <c r="AG8" s="131"/>
+      <c r="AG8" s="132"/>
       <c r="AH8" s="71">
         <f>SUM(AH10:AH50)</f>
         <v>291.44</v>
@@ -10603,11 +10603,12 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="AF4:AG4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="X4:Y4"/>
+    <mergeCell ref="AB4:AC4"/>
     <mergeCell ref="AF7:AG7"/>
     <mergeCell ref="L8:M8"/>
     <mergeCell ref="P8:Q8"/>
@@ -10616,12 +10617,11 @@
     <mergeCell ref="AB8:AC8"/>
     <mergeCell ref="AF8:AG8"/>
     <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="AF4:AG4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="X4:Y4"/>
-    <mergeCell ref="AB4:AC4"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="X7:Y7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10631,9 +10631,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD60"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N54" sqref="N54"/>
+      <selection pane="bottomLeft" activeCell="R26" sqref="R26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10643,6 +10643,7 @@
     <col min="14" max="14" width="12.33203125" style="76" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12.33203125" style="97" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="13" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
@@ -11841,7 +11842,7 @@
         <v>22.139500000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="62" t="s">
         <v>55</v>
       </c>
@@ -11902,7 +11903,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:18" s="79" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:20" s="79" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="86" t="s">
         <v>56</v>
       </c>
@@ -11963,18 +11964,18 @@
         <v>106.28304166666668</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="N35" s="91"/>
       <c r="O35" s="91"/>
     </row>
-    <row r="36" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="65" t="s">
         <v>63</v>
       </c>
       <c r="N36" s="91"/>
       <c r="O36" s="91"/>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A37" s="32" t="s">
         <v>101</v>
       </c>
@@ -12038,7 +12039,7 @@
         <v>497.3</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A38" s="32" t="s">
         <v>57</v>
       </c>
@@ -12105,7 +12106,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A39" s="32" t="s">
         <v>58</v>
       </c>
@@ -12172,7 +12173,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A40" s="32" t="s">
         <v>91</v>
       </c>
@@ -12239,7 +12240,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A41" s="32" t="s">
         <v>59</v>
       </c>
@@ -12306,7 +12307,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A42" s="32" t="s">
         <v>60</v>
       </c>
@@ -12373,7 +12374,7 @@
         <v>10.81</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A43" s="40" t="s">
         <v>95</v>
       </c>
@@ -12440,7 +12441,7 @@
         <v>8.65</v>
       </c>
     </row>
-    <row r="44" spans="1:18" s="79" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" s="79" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="84" t="s">
         <v>65</v>
       </c>
@@ -12508,8 +12509,9 @@
         <f>SUM(R37:R43)</f>
         <v>667.45999999999992</v>
       </c>
-    </row>
-    <row r="45" spans="1:18" s="79" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T44" s="78"/>
+    </row>
+    <row r="45" spans="1:20" s="79" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="82" t="s">
         <v>64</v>
       </c>
@@ -12578,18 +12580,18 @@
         <v>1467.46</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
       <c r="N46" s="91"/>
       <c r="O46" s="91"/>
     </row>
-    <row r="47" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="17" t="s">
         <v>67</v>
       </c>
       <c r="N47" s="91"/>
       <c r="O47" s="91"/>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A48" s="21" t="s">
         <v>62</v>
       </c>
@@ -13598,50 +13600,50 @@
         <f>SUM(N4,R4,V4,Z4,AD4,AH4)</f>
         <v>403.96</v>
       </c>
-      <c r="L4" s="129" t="s">
+      <c r="L4" s="133" t="s">
         <v>105</v>
       </c>
-      <c r="M4" s="129"/>
+      <c r="M4" s="133"/>
       <c r="N4" s="20">
         <f>150-N8</f>
         <v>25.269999999999996</v>
       </c>
-      <c r="P4" s="129" t="s">
+      <c r="P4" s="133" t="s">
         <v>106</v>
       </c>
-      <c r="Q4" s="129"/>
+      <c r="Q4" s="133"/>
       <c r="R4" s="20">
         <f>100-R8</f>
         <v>29.17</v>
       </c>
-      <c r="T4" s="129" t="s">
+      <c r="T4" s="133" t="s">
         <v>107</v>
       </c>
-      <c r="U4" s="129"/>
+      <c r="U4" s="133"/>
       <c r="V4" s="20">
         <f>200-V8</f>
         <v>-62.079999999999984</v>
       </c>
-      <c r="X4" s="129" t="s">
+      <c r="X4" s="133" t="s">
         <v>108</v>
       </c>
-      <c r="Y4" s="129"/>
+      <c r="Y4" s="133"/>
       <c r="Z4" s="20">
         <f>150-Z8</f>
         <v>-12.510000000000019</v>
       </c>
-      <c r="AB4" s="129" t="s">
+      <c r="AB4" s="133" t="s">
         <v>109</v>
       </c>
-      <c r="AC4" s="129"/>
+      <c r="AC4" s="133"/>
       <c r="AD4" s="20">
         <f>100-AD8</f>
         <v>16.590000000000003</v>
       </c>
-      <c r="AF4" s="129" t="s">
+      <c r="AF4" s="133" t="s">
         <v>110</v>
       </c>
-      <c r="AG4" s="129"/>
+      <c r="AG4" s="133"/>
       <c r="AH4" s="20">
         <f>500-AH8</f>
         <v>407.52</v>
@@ -13675,10 +13677,10 @@
       <c r="D6" s="116">
         <v>2480.54</v>
       </c>
-      <c r="L6" s="132" t="s">
+      <c r="L6" s="129" t="s">
         <v>77</v>
       </c>
-      <c r="M6" s="132"/>
+      <c r="M6" s="129"/>
       <c r="N6" s="72"/>
       <c r="O6" s="17"/>
       <c r="P6" s="73"/>
@@ -13718,30 +13720,30 @@
       <c r="H7" s="38"/>
       <c r="I7" s="38"/>
       <c r="J7" s="39"/>
-      <c r="L7" s="133" t="s">
+      <c r="L7" s="130" t="s">
         <v>62</v>
       </c>
-      <c r="M7" s="133"/>
-      <c r="P7" s="130" t="s">
+      <c r="M7" s="130"/>
+      <c r="P7" s="131" t="s">
         <v>61</v>
       </c>
-      <c r="Q7" s="130"/>
-      <c r="T7" s="130" t="s">
+      <c r="Q7" s="131"/>
+      <c r="T7" s="131" t="s">
         <v>68</v>
       </c>
-      <c r="U7" s="130"/>
-      <c r="X7" s="130" t="s">
+      <c r="U7" s="131"/>
+      <c r="X7" s="131" t="s">
         <v>69</v>
       </c>
-      <c r="Y7" s="130"/>
-      <c r="AB7" s="130" t="s">
+      <c r="Y7" s="131"/>
+      <c r="AB7" s="131" t="s">
         <v>81</v>
       </c>
-      <c r="AC7" s="130"/>
-      <c r="AF7" s="130" t="s">
+      <c r="AC7" s="131"/>
+      <c r="AF7" s="131" t="s">
         <v>111</v>
       </c>
-      <c r="AG7" s="130"/>
+      <c r="AG7" s="131"/>
     </row>
     <row r="8" spans="2:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="34" t="s">
@@ -13764,50 +13766,50 @@
       <c r="H8" s="21"/>
       <c r="I8" s="21"/>
       <c r="J8" s="60"/>
-      <c r="L8" s="131" t="s">
+      <c r="L8" s="132" t="s">
         <v>82</v>
       </c>
-      <c r="M8" s="131"/>
+      <c r="M8" s="132"/>
       <c r="N8" s="71">
         <f>SUM(N10:N50)</f>
         <v>124.73</v>
       </c>
-      <c r="P8" s="131" t="s">
+      <c r="P8" s="132" t="s">
         <v>82</v>
       </c>
-      <c r="Q8" s="131"/>
+      <c r="Q8" s="132"/>
       <c r="R8" s="71">
         <f>SUM(R10:R50)</f>
         <v>70.83</v>
       </c>
-      <c r="T8" s="131" t="s">
+      <c r="T8" s="132" t="s">
         <v>82</v>
       </c>
-      <c r="U8" s="131"/>
+      <c r="U8" s="132"/>
       <c r="V8" s="71">
         <f>SUM(V10:V50)</f>
         <v>262.08</v>
       </c>
-      <c r="X8" s="131" t="s">
+      <c r="X8" s="132" t="s">
         <v>82</v>
       </c>
-      <c r="Y8" s="131"/>
+      <c r="Y8" s="132"/>
       <c r="Z8" s="71">
         <f>SUM(Z10:Z50)</f>
         <v>162.51000000000002</v>
       </c>
-      <c r="AB8" s="131" t="s">
+      <c r="AB8" s="132" t="s">
         <v>82</v>
       </c>
-      <c r="AC8" s="131"/>
+      <c r="AC8" s="132"/>
       <c r="AD8" s="71">
         <f>SUM(AD10:AD50)</f>
         <v>83.41</v>
       </c>
-      <c r="AF8" s="131" t="s">
+      <c r="AF8" s="132" t="s">
         <v>82</v>
       </c>
-      <c r="AG8" s="131"/>
+      <c r="AG8" s="132"/>
       <c r="AH8" s="71">
         <f>SUM(AH10:AH50)</f>
         <v>92.480000000000018</v>
@@ -14773,11 +14775,12 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="AF4:AG4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="X4:Y4"/>
+    <mergeCell ref="AB4:AC4"/>
     <mergeCell ref="AF7:AG7"/>
     <mergeCell ref="L8:M8"/>
     <mergeCell ref="P8:Q8"/>
@@ -14786,12 +14789,11 @@
     <mergeCell ref="AB8:AC8"/>
     <mergeCell ref="AF8:AG8"/>
     <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="AF4:AG4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="X4:Y4"/>
-    <mergeCell ref="AB4:AC4"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="X7:Y7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -14887,50 +14889,50 @@
         <f>SUM(N4,R4,V4,Z4,AD4,AH4)</f>
         <v>15.499999999999986</v>
       </c>
-      <c r="L4" s="129" t="s">
+      <c r="L4" s="133" t="s">
         <v>105</v>
       </c>
-      <c r="M4" s="129"/>
+      <c r="M4" s="133"/>
       <c r="N4" s="20">
         <f>150-N8</f>
         <v>72.78</v>
       </c>
-      <c r="P4" s="129" t="s">
+      <c r="P4" s="133" t="s">
         <v>106</v>
       </c>
-      <c r="Q4" s="129"/>
+      <c r="Q4" s="133"/>
       <c r="R4" s="20">
         <f>100-R8</f>
         <v>-50.670000000000016</v>
       </c>
-      <c r="T4" s="129" t="s">
+      <c r="T4" s="133" t="s">
         <v>107</v>
       </c>
-      <c r="U4" s="129"/>
+      <c r="U4" s="133"/>
       <c r="V4" s="20">
         <f>200-V8</f>
         <v>18.949999999999989</v>
       </c>
-      <c r="X4" s="129" t="s">
+      <c r="X4" s="133" t="s">
         <v>108</v>
       </c>
-      <c r="Y4" s="129"/>
+      <c r="Y4" s="133"/>
       <c r="Z4" s="20">
         <f>150-Z8</f>
         <v>88.64</v>
       </c>
-      <c r="AB4" s="129" t="s">
+      <c r="AB4" s="133" t="s">
         <v>109</v>
       </c>
-      <c r="AC4" s="129"/>
+      <c r="AC4" s="133"/>
       <c r="AD4" s="20">
         <f>100-AD8</f>
         <v>-8.5899999999999892</v>
       </c>
-      <c r="AF4" s="129" t="s">
+      <c r="AF4" s="133" t="s">
         <v>110</v>
       </c>
-      <c r="AG4" s="129"/>
+      <c r="AG4" s="133"/>
       <c r="AH4" s="20">
         <f>300-AH8</f>
         <v>-105.61000000000001</v>
@@ -14964,10 +14966,10 @@
       <c r="D6" s="33">
         <v>2480.54</v>
       </c>
-      <c r="L6" s="132" t="s">
+      <c r="L6" s="129" t="s">
         <v>77</v>
       </c>
-      <c r="M6" s="132"/>
+      <c r="M6" s="129"/>
       <c r="N6" s="72"/>
       <c r="O6" s="17"/>
       <c r="P6" s="73"/>
@@ -15007,30 +15009,30 @@
       <c r="H7" s="38"/>
       <c r="I7" s="38"/>
       <c r="J7" s="39"/>
-      <c r="L7" s="133" t="s">
+      <c r="L7" s="130" t="s">
         <v>62</v>
       </c>
-      <c r="M7" s="133"/>
-      <c r="P7" s="130" t="s">
+      <c r="M7" s="130"/>
+      <c r="P7" s="131" t="s">
         <v>61</v>
       </c>
-      <c r="Q7" s="130"/>
-      <c r="T7" s="130" t="s">
+      <c r="Q7" s="131"/>
+      <c r="T7" s="131" t="s">
         <v>68</v>
       </c>
-      <c r="U7" s="130"/>
-      <c r="X7" s="130" t="s">
+      <c r="U7" s="131"/>
+      <c r="X7" s="131" t="s">
         <v>69</v>
       </c>
-      <c r="Y7" s="130"/>
-      <c r="AB7" s="130" t="s">
+      <c r="Y7" s="131"/>
+      <c r="AB7" s="131" t="s">
         <v>81</v>
       </c>
-      <c r="AC7" s="130"/>
-      <c r="AF7" s="130" t="s">
+      <c r="AC7" s="131"/>
+      <c r="AF7" s="131" t="s">
         <v>111</v>
       </c>
-      <c r="AG7" s="130"/>
+      <c r="AG7" s="131"/>
     </row>
     <row r="8" spans="2:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="34" t="s">
@@ -15053,50 +15055,50 @@
       <c r="H8" s="21"/>
       <c r="I8" s="21"/>
       <c r="J8" s="60"/>
-      <c r="L8" s="131" t="s">
+      <c r="L8" s="132" t="s">
         <v>82</v>
       </c>
-      <c r="M8" s="131"/>
+      <c r="M8" s="132"/>
       <c r="N8" s="71">
         <f>SUM(N10:N50)</f>
         <v>77.22</v>
       </c>
-      <c r="P8" s="131" t="s">
+      <c r="P8" s="132" t="s">
         <v>82</v>
       </c>
-      <c r="Q8" s="131"/>
+      <c r="Q8" s="132"/>
       <c r="R8" s="71">
         <f>SUM(R10:R50)</f>
         <v>150.67000000000002</v>
       </c>
-      <c r="T8" s="131" t="s">
+      <c r="T8" s="132" t="s">
         <v>82</v>
       </c>
-      <c r="U8" s="131"/>
+      <c r="U8" s="132"/>
       <c r="V8" s="71">
         <f>SUM(V10:V50)</f>
         <v>181.05</v>
       </c>
-      <c r="X8" s="131" t="s">
+      <c r="X8" s="132" t="s">
         <v>82</v>
       </c>
-      <c r="Y8" s="131"/>
+      <c r="Y8" s="132"/>
       <c r="Z8" s="71">
         <f>SUM(Z10:Z50)</f>
         <v>61.36</v>
       </c>
-      <c r="AB8" s="131" t="s">
+      <c r="AB8" s="132" t="s">
         <v>82</v>
       </c>
-      <c r="AC8" s="131"/>
+      <c r="AC8" s="132"/>
       <c r="AD8" s="71">
         <f>SUM(AD10:AD50)</f>
         <v>108.58999999999999</v>
       </c>
-      <c r="AF8" s="131" t="s">
+      <c r="AF8" s="132" t="s">
         <v>82</v>
       </c>
-      <c r="AG8" s="131"/>
+      <c r="AG8" s="132"/>
       <c r="AH8" s="71">
         <f>SUM(AH10:AH50)</f>
         <v>405.61</v>
@@ -16069,11 +16071,12 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="AF4:AG4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="X4:Y4"/>
+    <mergeCell ref="AB4:AC4"/>
     <mergeCell ref="L8:M8"/>
     <mergeCell ref="AF7:AG7"/>
     <mergeCell ref="AF8:AG8"/>
@@ -16082,12 +16085,11 @@
     <mergeCell ref="T8:U8"/>
     <mergeCell ref="P8:Q8"/>
     <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="AF4:AG4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="X4:Y4"/>
-    <mergeCell ref="AB4:AC4"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="X7:Y7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -16184,50 +16186,50 @@
         <f>SUM(N4,R4,V4,Z4,AD4,AH4)</f>
         <v>172.95000000000005</v>
       </c>
-      <c r="L4" s="129" t="s">
+      <c r="L4" s="133" t="s">
         <v>105</v>
       </c>
-      <c r="M4" s="129"/>
+      <c r="M4" s="133"/>
       <c r="N4" s="20">
         <f>150-N8</f>
         <v>-31.170000000000016</v>
       </c>
-      <c r="P4" s="129" t="s">
+      <c r="P4" s="133" t="s">
         <v>106</v>
       </c>
-      <c r="Q4" s="129"/>
+      <c r="Q4" s="133"/>
       <c r="R4" s="20">
         <f>100-R8</f>
         <v>67.81</v>
       </c>
-      <c r="T4" s="129" t="s">
+      <c r="T4" s="133" t="s">
         <v>107</v>
       </c>
-      <c r="U4" s="129"/>
+      <c r="U4" s="133"/>
       <c r="V4" s="20">
         <f>200-V8</f>
         <v>-72.629999999999939</v>
       </c>
-      <c r="X4" s="129" t="s">
+      <c r="X4" s="133" t="s">
         <v>108</v>
       </c>
-      <c r="Y4" s="129"/>
+      <c r="Y4" s="133"/>
       <c r="Z4" s="20">
         <f>150-Z8</f>
         <v>58.480000000000004</v>
       </c>
-      <c r="AB4" s="129" t="s">
+      <c r="AB4" s="133" t="s">
         <v>109</v>
       </c>
-      <c r="AC4" s="129"/>
+      <c r="AC4" s="133"/>
       <c r="AD4" s="20">
         <f>100-AD8</f>
         <v>14.189999999999998</v>
       </c>
-      <c r="AF4" s="129" t="s">
+      <c r="AF4" s="133" t="s">
         <v>110</v>
       </c>
-      <c r="AG4" s="129"/>
+      <c r="AG4" s="133"/>
       <c r="AH4" s="20">
         <f>300-AH8</f>
         <v>136.26999999999998</v>
@@ -16261,10 +16263,10 @@
       <c r="D6" s="33">
         <v>2480.54</v>
       </c>
-      <c r="L6" s="132" t="s">
+      <c r="L6" s="129" t="s">
         <v>77</v>
       </c>
-      <c r="M6" s="132"/>
+      <c r="M6" s="129"/>
       <c r="N6" s="72"/>
       <c r="O6" s="17"/>
       <c r="P6" s="73"/>
@@ -16304,30 +16306,30 @@
       <c r="H7" s="38"/>
       <c r="I7" s="38"/>
       <c r="J7" s="39"/>
-      <c r="L7" s="133" t="s">
+      <c r="L7" s="130" t="s">
         <v>62</v>
       </c>
-      <c r="M7" s="133"/>
-      <c r="P7" s="130" t="s">
+      <c r="M7" s="130"/>
+      <c r="P7" s="131" t="s">
         <v>61</v>
       </c>
-      <c r="Q7" s="130"/>
-      <c r="T7" s="130" t="s">
+      <c r="Q7" s="131"/>
+      <c r="T7" s="131" t="s">
         <v>68</v>
       </c>
-      <c r="U7" s="130"/>
-      <c r="X7" s="130" t="s">
+      <c r="U7" s="131"/>
+      <c r="X7" s="131" t="s">
         <v>69</v>
       </c>
-      <c r="Y7" s="130"/>
-      <c r="AB7" s="130" t="s">
+      <c r="Y7" s="131"/>
+      <c r="AB7" s="131" t="s">
         <v>81</v>
       </c>
-      <c r="AC7" s="130"/>
-      <c r="AF7" s="130" t="s">
+      <c r="AC7" s="131"/>
+      <c r="AF7" s="131" t="s">
         <v>111</v>
       </c>
-      <c r="AG7" s="130"/>
+      <c r="AG7" s="131"/>
     </row>
     <row r="8" spans="2:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="34" t="s">
@@ -16350,50 +16352,50 @@
       <c r="H8" s="21"/>
       <c r="I8" s="21"/>
       <c r="J8" s="60"/>
-      <c r="L8" s="131" t="s">
+      <c r="L8" s="132" t="s">
         <v>82</v>
       </c>
-      <c r="M8" s="131"/>
+      <c r="M8" s="132"/>
       <c r="N8" s="71">
         <f>SUM(N10:N50)</f>
         <v>181.17000000000002</v>
       </c>
-      <c r="P8" s="131" t="s">
+      <c r="P8" s="132" t="s">
         <v>82</v>
       </c>
-      <c r="Q8" s="131"/>
+      <c r="Q8" s="132"/>
       <c r="R8" s="71">
         <f>SUM(R10:R50)</f>
         <v>32.190000000000005</v>
       </c>
-      <c r="T8" s="131" t="s">
+      <c r="T8" s="132" t="s">
         <v>82</v>
       </c>
-      <c r="U8" s="131"/>
+      <c r="U8" s="132"/>
       <c r="V8" s="71">
         <f>SUM(V10:V50)</f>
         <v>272.62999999999994</v>
       </c>
-      <c r="X8" s="131" t="s">
+      <c r="X8" s="132" t="s">
         <v>82</v>
       </c>
-      <c r="Y8" s="131"/>
+      <c r="Y8" s="132"/>
       <c r="Z8" s="71">
         <f>SUM(Z10:Z50)</f>
         <v>91.52</v>
       </c>
-      <c r="AB8" s="131" t="s">
+      <c r="AB8" s="132" t="s">
         <v>82</v>
       </c>
-      <c r="AC8" s="131"/>
+      <c r="AC8" s="132"/>
       <c r="AD8" s="71">
         <f>SUM(AD10:AD50)</f>
         <v>85.81</v>
       </c>
-      <c r="AF8" s="131" t="s">
+      <c r="AF8" s="132" t="s">
         <v>82</v>
       </c>
-      <c r="AG8" s="131"/>
+      <c r="AG8" s="132"/>
       <c r="AH8" s="71">
         <f>SUM(AH10:AH50)</f>
         <v>163.73000000000002</v>
@@ -17389,11 +17391,12 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="AF4:AG4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="X4:Y4"/>
+    <mergeCell ref="AB4:AC4"/>
     <mergeCell ref="AF7:AG7"/>
     <mergeCell ref="L8:M8"/>
     <mergeCell ref="P8:Q8"/>
@@ -17402,12 +17405,11 @@
     <mergeCell ref="AB8:AC8"/>
     <mergeCell ref="AF8:AG8"/>
     <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="AF4:AG4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="X4:Y4"/>
-    <mergeCell ref="AB4:AC4"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="X7:Y7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -17503,50 +17505,50 @@
         <f>SUM(N4,R4,V4,Z4,AD4,AH4)</f>
         <v>298.64</v>
       </c>
-      <c r="L4" s="129" t="s">
+      <c r="L4" s="133" t="s">
         <v>105</v>
       </c>
-      <c r="M4" s="129"/>
+      <c r="M4" s="133"/>
       <c r="N4" s="20">
         <f>150-N8</f>
         <v>84.12</v>
       </c>
-      <c r="P4" s="129" t="s">
+      <c r="P4" s="133" t="s">
         <v>106</v>
       </c>
-      <c r="Q4" s="129"/>
+      <c r="Q4" s="133"/>
       <c r="R4" s="20">
         <f>100-R8</f>
         <v>-60.54000000000002</v>
       </c>
-      <c r="T4" s="129" t="s">
+      <c r="T4" s="133" t="s">
         <v>107</v>
       </c>
-      <c r="U4" s="129"/>
+      <c r="U4" s="133"/>
       <c r="V4" s="20">
         <f>200-V8</f>
         <v>-39.129999999999967</v>
       </c>
-      <c r="X4" s="129" t="s">
+      <c r="X4" s="133" t="s">
         <v>108</v>
       </c>
-      <c r="Y4" s="129"/>
+      <c r="Y4" s="133"/>
       <c r="Z4" s="20">
         <f>100-Z8</f>
         <v>30.689999999999998</v>
       </c>
-      <c r="AB4" s="129" t="s">
+      <c r="AB4" s="133" t="s">
         <v>109</v>
       </c>
-      <c r="AC4" s="129"/>
+      <c r="AC4" s="133"/>
       <c r="AD4" s="20">
         <f>100-AD8</f>
         <v>59.1</v>
       </c>
-      <c r="AF4" s="129" t="s">
+      <c r="AF4" s="133" t="s">
         <v>110</v>
       </c>
-      <c r="AG4" s="129"/>
+      <c r="AG4" s="133"/>
       <c r="AH4" s="20">
         <f>300-AH8</f>
         <v>224.39999999999998</v>
@@ -17580,10 +17582,10 @@
       <c r="D6" s="116">
         <v>2480.54</v>
       </c>
-      <c r="L6" s="132" t="s">
+      <c r="L6" s="129" t="s">
         <v>77</v>
       </c>
-      <c r="M6" s="132"/>
+      <c r="M6" s="129"/>
       <c r="N6" s="72"/>
       <c r="O6" s="17"/>
       <c r="P6" s="73"/>
@@ -17623,30 +17625,30 @@
       <c r="H7" s="38"/>
       <c r="I7" s="38"/>
       <c r="J7" s="39"/>
-      <c r="L7" s="133" t="s">
+      <c r="L7" s="130" t="s">
         <v>62</v>
       </c>
-      <c r="M7" s="133"/>
-      <c r="P7" s="130" t="s">
+      <c r="M7" s="130"/>
+      <c r="P7" s="131" t="s">
         <v>61</v>
       </c>
-      <c r="Q7" s="130"/>
-      <c r="T7" s="130" t="s">
+      <c r="Q7" s="131"/>
+      <c r="T7" s="131" t="s">
         <v>68</v>
       </c>
-      <c r="U7" s="130"/>
-      <c r="X7" s="130" t="s">
+      <c r="U7" s="131"/>
+      <c r="X7" s="131" t="s">
         <v>69</v>
       </c>
-      <c r="Y7" s="130"/>
-      <c r="AB7" s="130" t="s">
+      <c r="Y7" s="131"/>
+      <c r="AB7" s="131" t="s">
         <v>81</v>
       </c>
-      <c r="AC7" s="130"/>
-      <c r="AF7" s="130" t="s">
+      <c r="AC7" s="131"/>
+      <c r="AF7" s="131" t="s">
         <v>111</v>
       </c>
-      <c r="AG7" s="130"/>
+      <c r="AG7" s="131"/>
     </row>
     <row r="8" spans="2:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="34" t="s">
@@ -17669,50 +17671,50 @@
       <c r="H8" s="21"/>
       <c r="I8" s="21"/>
       <c r="J8" s="60"/>
-      <c r="L8" s="131" t="s">
+      <c r="L8" s="132" t="s">
         <v>82</v>
       </c>
-      <c r="M8" s="131"/>
+      <c r="M8" s="132"/>
       <c r="N8" s="71">
         <f>SUM(N10:N50)</f>
         <v>65.88</v>
       </c>
-      <c r="P8" s="131" t="s">
+      <c r="P8" s="132" t="s">
         <v>82</v>
       </c>
-      <c r="Q8" s="131"/>
+      <c r="Q8" s="132"/>
       <c r="R8" s="71">
         <f>SUM(R10:R50)</f>
         <v>160.54000000000002</v>
       </c>
-      <c r="T8" s="131" t="s">
+      <c r="T8" s="132" t="s">
         <v>82</v>
       </c>
-      <c r="U8" s="131"/>
+      <c r="U8" s="132"/>
       <c r="V8" s="71">
         <f>SUM(V10:V50)</f>
         <v>239.12999999999997</v>
       </c>
-      <c r="X8" s="131" t="s">
+      <c r="X8" s="132" t="s">
         <v>82</v>
       </c>
-      <c r="Y8" s="131"/>
+      <c r="Y8" s="132"/>
       <c r="Z8" s="71">
         <f>SUM(Z10:Z50)</f>
         <v>69.31</v>
       </c>
-      <c r="AB8" s="131" t="s">
+      <c r="AB8" s="132" t="s">
         <v>82</v>
       </c>
-      <c r="AC8" s="131"/>
+      <c r="AC8" s="132"/>
       <c r="AD8" s="71">
         <f>SUM(AD10:AD50)</f>
         <v>40.9</v>
       </c>
-      <c r="AF8" s="131" t="s">
+      <c r="AF8" s="132" t="s">
         <v>82</v>
       </c>
-      <c r="AG8" s="131"/>
+      <c r="AG8" s="132"/>
       <c r="AH8" s="71">
         <f>SUM(AH10:AH50)</f>
         <v>75.600000000000009</v>
@@ -18545,11 +18547,12 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="AF4:AG4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="X4:Y4"/>
+    <mergeCell ref="AB4:AC4"/>
     <mergeCell ref="AF7:AG7"/>
     <mergeCell ref="L8:M8"/>
     <mergeCell ref="P8:Q8"/>
@@ -18558,12 +18561,11 @@
     <mergeCell ref="AB8:AC8"/>
     <mergeCell ref="AF8:AG8"/>
     <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="AF4:AG4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="X4:Y4"/>
-    <mergeCell ref="AB4:AC4"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="X7:Y7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -18660,50 +18662,50 @@
         <f>SUM(N4,R4,V4,Z4,AD4,AH4)</f>
         <v>-65.710000000000036</v>
       </c>
-      <c r="L4" s="129" t="s">
+      <c r="L4" s="133" t="s">
         <v>105</v>
       </c>
-      <c r="M4" s="129"/>
+      <c r="M4" s="133"/>
       <c r="N4" s="20">
         <f>150-N8</f>
         <v>50.239999999999995</v>
       </c>
-      <c r="P4" s="129" t="s">
+      <c r="P4" s="133" t="s">
         <v>106</v>
       </c>
-      <c r="Q4" s="129"/>
+      <c r="Q4" s="133"/>
       <c r="R4" s="20">
         <f>100-R8</f>
         <v>-20.099999999999994</v>
       </c>
-      <c r="T4" s="129" t="s">
+      <c r="T4" s="133" t="s">
         <v>107</v>
       </c>
-      <c r="U4" s="129"/>
+      <c r="U4" s="133"/>
       <c r="V4" s="20">
         <f>200-V8</f>
         <v>11.120000000000005</v>
       </c>
-      <c r="X4" s="129" t="s">
+      <c r="X4" s="133" t="s">
         <v>108</v>
       </c>
-      <c r="Y4" s="129"/>
+      <c r="Y4" s="133"/>
       <c r="Z4" s="20">
         <f>100-Z8</f>
         <v>-7.8299999999999983</v>
       </c>
-      <c r="AB4" s="129" t="s">
+      <c r="AB4" s="133" t="s">
         <v>109</v>
       </c>
-      <c r="AC4" s="129"/>
+      <c r="AC4" s="133"/>
       <c r="AD4" s="20">
         <f>100-AD8</f>
         <v>-54.180000000000007</v>
       </c>
-      <c r="AF4" s="129" t="s">
+      <c r="AF4" s="133" t="s">
         <v>110</v>
       </c>
-      <c r="AG4" s="129"/>
+      <c r="AG4" s="133"/>
       <c r="AH4" s="20">
         <f>300-AH8</f>
         <v>-44.960000000000036</v>
@@ -18737,10 +18739,10 @@
       <c r="D6" s="33">
         <v>2480.54</v>
       </c>
-      <c r="L6" s="132" t="s">
+      <c r="L6" s="129" t="s">
         <v>77</v>
       </c>
-      <c r="M6" s="132"/>
+      <c r="M6" s="129"/>
       <c r="N6" s="72"/>
       <c r="O6" s="17"/>
       <c r="P6" s="73"/>
@@ -18780,30 +18782,30 @@
       <c r="H7" s="38"/>
       <c r="I7" s="38"/>
       <c r="J7" s="39"/>
-      <c r="L7" s="133" t="s">
+      <c r="L7" s="130" t="s">
         <v>62</v>
       </c>
-      <c r="M7" s="133"/>
-      <c r="P7" s="130" t="s">
+      <c r="M7" s="130"/>
+      <c r="P7" s="131" t="s">
         <v>61</v>
       </c>
-      <c r="Q7" s="130"/>
-      <c r="T7" s="130" t="s">
+      <c r="Q7" s="131"/>
+      <c r="T7" s="131" t="s">
         <v>68</v>
       </c>
-      <c r="U7" s="130"/>
-      <c r="X7" s="130" t="s">
+      <c r="U7" s="131"/>
+      <c r="X7" s="131" t="s">
         <v>69</v>
       </c>
-      <c r="Y7" s="130"/>
-      <c r="AB7" s="130" t="s">
+      <c r="Y7" s="131"/>
+      <c r="AB7" s="131" t="s">
         <v>81</v>
       </c>
-      <c r="AC7" s="130"/>
-      <c r="AF7" s="130" t="s">
+      <c r="AC7" s="131"/>
+      <c r="AF7" s="131" t="s">
         <v>111</v>
       </c>
-      <c r="AG7" s="130"/>
+      <c r="AG7" s="131"/>
     </row>
     <row r="8" spans="2:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="34" t="s">
@@ -18826,50 +18828,50 @@
       <c r="H8" s="21"/>
       <c r="I8" s="21"/>
       <c r="J8" s="60"/>
-      <c r="L8" s="131" t="s">
+      <c r="L8" s="132" t="s">
         <v>82</v>
       </c>
-      <c r="M8" s="131"/>
+      <c r="M8" s="132"/>
       <c r="N8" s="71">
         <f>SUM(N10:N50)</f>
         <v>99.76</v>
       </c>
-      <c r="P8" s="131" t="s">
+      <c r="P8" s="132" t="s">
         <v>82</v>
       </c>
-      <c r="Q8" s="131"/>
+      <c r="Q8" s="132"/>
       <c r="R8" s="71">
         <f>SUM(R10:R50)</f>
         <v>120.1</v>
       </c>
-      <c r="T8" s="131" t="s">
+      <c r="T8" s="132" t="s">
         <v>82</v>
       </c>
-      <c r="U8" s="131"/>
+      <c r="U8" s="132"/>
       <c r="V8" s="71">
         <f>SUM(V10:V50)</f>
         <v>188.88</v>
       </c>
-      <c r="X8" s="131" t="s">
+      <c r="X8" s="132" t="s">
         <v>82</v>
       </c>
-      <c r="Y8" s="131"/>
+      <c r="Y8" s="132"/>
       <c r="Z8" s="71">
         <f>SUM(Z10:Z50)</f>
         <v>107.83</v>
       </c>
-      <c r="AB8" s="131" t="s">
+      <c r="AB8" s="132" t="s">
         <v>82</v>
       </c>
-      <c r="AC8" s="131"/>
+      <c r="AC8" s="132"/>
       <c r="AD8" s="71">
         <f>SUM(AD10:AD50)</f>
         <v>154.18</v>
       </c>
-      <c r="AF8" s="131" t="s">
+      <c r="AF8" s="132" t="s">
         <v>82</v>
       </c>
-      <c r="AG8" s="131"/>
+      <c r="AG8" s="132"/>
       <c r="AH8" s="71">
         <f>SUM(AH10:AH50)</f>
         <v>344.96000000000004</v>
@@ -19866,11 +19868,12 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="AF4:AG4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="X4:Y4"/>
+    <mergeCell ref="AB4:AC4"/>
     <mergeCell ref="AF7:AG7"/>
     <mergeCell ref="L8:M8"/>
     <mergeCell ref="P8:Q8"/>
@@ -19879,12 +19882,11 @@
     <mergeCell ref="AB8:AC8"/>
     <mergeCell ref="AF8:AG8"/>
     <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="AF4:AG4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="X4:Y4"/>
-    <mergeCell ref="AB4:AC4"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="X7:Y7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -19980,50 +19982,50 @@
         <f>SUM(N4,R4,V4,Z4,AD4,AH4)</f>
         <v>-119.50999999999996</v>
       </c>
-      <c r="L4" s="129" t="s">
+      <c r="L4" s="133" t="s">
         <v>105</v>
       </c>
-      <c r="M4" s="129"/>
+      <c r="M4" s="133"/>
       <c r="N4" s="20">
         <f>100-N8</f>
         <v>-57.879999999999995</v>
       </c>
-      <c r="P4" s="129" t="s">
+      <c r="P4" s="133" t="s">
         <v>106</v>
       </c>
-      <c r="Q4" s="129"/>
+      <c r="Q4" s="133"/>
       <c r="R4" s="20">
         <f>100-R8</f>
         <v>-164.90999999999997</v>
       </c>
-      <c r="T4" s="129" t="s">
+      <c r="T4" s="133" t="s">
         <v>107</v>
       </c>
-      <c r="U4" s="129"/>
+      <c r="U4" s="133"/>
       <c r="V4" s="20">
         <f>200-V8</f>
         <v>-57.94</v>
       </c>
-      <c r="X4" s="129" t="s">
+      <c r="X4" s="133" t="s">
         <v>108</v>
       </c>
-      <c r="Y4" s="129"/>
+      <c r="Y4" s="133"/>
       <c r="Z4" s="20">
         <f>100-Z8</f>
         <v>-20</v>
       </c>
-      <c r="AB4" s="129" t="s">
+      <c r="AB4" s="133" t="s">
         <v>109</v>
       </c>
-      <c r="AC4" s="129"/>
+      <c r="AC4" s="133"/>
       <c r="AD4" s="20">
         <f>100-AD8</f>
         <v>28.75</v>
       </c>
-      <c r="AF4" s="129" t="s">
+      <c r="AF4" s="133" t="s">
         <v>110</v>
       </c>
-      <c r="AG4" s="129"/>
+      <c r="AG4" s="133"/>
       <c r="AH4" s="20">
         <f>300-AH8</f>
         <v>152.47</v>
@@ -20057,10 +20059,10 @@
       <c r="D6" s="116">
         <v>2480.54</v>
       </c>
-      <c r="L6" s="132" t="s">
+      <c r="L6" s="129" t="s">
         <v>77</v>
       </c>
-      <c r="M6" s="132"/>
+      <c r="M6" s="129"/>
       <c r="N6" s="72"/>
       <c r="O6" s="17"/>
       <c r="P6" s="73"/>
@@ -20100,30 +20102,30 @@
       <c r="H7" s="38"/>
       <c r="I7" s="38"/>
       <c r="J7" s="39"/>
-      <c r="L7" s="133" t="s">
+      <c r="L7" s="130" t="s">
         <v>62</v>
       </c>
-      <c r="M7" s="133"/>
-      <c r="P7" s="130" t="s">
+      <c r="M7" s="130"/>
+      <c r="P7" s="131" t="s">
         <v>61</v>
       </c>
-      <c r="Q7" s="130"/>
-      <c r="T7" s="130" t="s">
+      <c r="Q7" s="131"/>
+      <c r="T7" s="131" t="s">
         <v>68</v>
       </c>
-      <c r="U7" s="130"/>
-      <c r="X7" s="130" t="s">
+      <c r="U7" s="131"/>
+      <c r="X7" s="131" t="s">
         <v>69</v>
       </c>
-      <c r="Y7" s="130"/>
-      <c r="AB7" s="130" t="s">
+      <c r="Y7" s="131"/>
+      <c r="AB7" s="131" t="s">
         <v>81</v>
       </c>
-      <c r="AC7" s="130"/>
-      <c r="AF7" s="130" t="s">
+      <c r="AC7" s="131"/>
+      <c r="AF7" s="131" t="s">
         <v>111</v>
       </c>
-      <c r="AG7" s="130"/>
+      <c r="AG7" s="131"/>
     </row>
     <row r="8" spans="2:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="34" t="s">
@@ -20146,50 +20148,50 @@
       <c r="H8" s="21"/>
       <c r="I8" s="21"/>
       <c r="J8" s="60"/>
-      <c r="L8" s="131" t="s">
+      <c r="L8" s="132" t="s">
         <v>82</v>
       </c>
-      <c r="M8" s="131"/>
+      <c r="M8" s="132"/>
       <c r="N8" s="71">
         <f>SUM(N10:N50)</f>
         <v>157.88</v>
       </c>
-      <c r="P8" s="131" t="s">
+      <c r="P8" s="132" t="s">
         <v>82</v>
       </c>
-      <c r="Q8" s="131"/>
+      <c r="Q8" s="132"/>
       <c r="R8" s="71">
         <f>SUM(R10:R50)</f>
         <v>264.90999999999997</v>
       </c>
-      <c r="T8" s="131" t="s">
+      <c r="T8" s="132" t="s">
         <v>82</v>
       </c>
-      <c r="U8" s="131"/>
+      <c r="U8" s="132"/>
       <c r="V8" s="71">
         <f>SUM(V10:V50)</f>
         <v>257.94</v>
       </c>
-      <c r="X8" s="131" t="s">
+      <c r="X8" s="132" t="s">
         <v>82</v>
       </c>
-      <c r="Y8" s="131"/>
+      <c r="Y8" s="132"/>
       <c r="Z8" s="71">
         <f>SUM(Z10:Z50)</f>
         <v>120</v>
       </c>
-      <c r="AB8" s="131" t="s">
+      <c r="AB8" s="132" t="s">
         <v>82</v>
       </c>
-      <c r="AC8" s="131"/>
+      <c r="AC8" s="132"/>
       <c r="AD8" s="71">
         <f>SUM(AD10:AD50)</f>
         <v>71.25</v>
       </c>
-      <c r="AF8" s="131" t="s">
+      <c r="AF8" s="132" t="s">
         <v>82</v>
       </c>
-      <c r="AG8" s="131"/>
+      <c r="AG8" s="132"/>
       <c r="AH8" s="71">
         <f>SUM(AH10:AH50)</f>
         <v>147.53</v>
@@ -21154,11 +21156,12 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="AF4:AG4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="X4:Y4"/>
+    <mergeCell ref="AB4:AC4"/>
     <mergeCell ref="AF7:AG7"/>
     <mergeCell ref="L8:M8"/>
     <mergeCell ref="P8:Q8"/>
@@ -21167,12 +21170,11 @@
     <mergeCell ref="AB8:AC8"/>
     <mergeCell ref="AF8:AG8"/>
     <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="AF4:AG4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="X4:Y4"/>
-    <mergeCell ref="AB4:AC4"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="X7:Y7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
